--- a/Zeiterfassung5Schuljahr.xlsx
+++ b/Zeiterfassung5Schuljahr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuljahr\syp\Projekt\multiflexlbkv\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B331A3E1-7FE9-44FA-B5D5-E827D67F2AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA453E73-4610-45F5-8FA0-FCA498F78AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -100,19 +100,19 @@
     <t>Generify</t>
   </si>
   <si>
-    <t>40:30</t>
-  </si>
-  <si>
     <t>Frontend Material</t>
   </si>
   <si>
-    <t>28:30</t>
+    <t>45:30</t>
   </si>
   <si>
-    <t>28:00</t>
+    <t>35:00</t>
   </si>
   <si>
-    <t>97:00</t>
+    <t>35:30</t>
+  </si>
+  <si>
+    <t>116:00</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -823,6 +823,43 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -893,10 +930,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,18 +942,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -928,27 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -959,31 +960,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -993,8 +969,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD264"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1397,35 +1379,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
@@ -1434,64 +1416,64 @@
       <c r="AG1" s="37"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
     </row>
     <row r="3" spans="1:33" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
@@ -1500,33 +1482,33 @@
       <c r="AG3" s="31"/>
     </row>
     <row r="4" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
       <c r="AF4" s="15"/>
       <c r="AG4" s="15"/>
     </row>
@@ -1535,35 +1517,35 @@
       <c r="AG5" s="15"/>
     </row>
     <row r="6" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
       <c r="AF6" s="15"/>
       <c r="AG6" s="15"/>
     </row>
@@ -1574,35 +1556,35 @@
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
-      <c r="P7" s="58" t="str">
+      <c r="P7" s="70" t="str">
         <f>G7</f>
         <v>Sprint: September</v>
       </c>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="72"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
-      <c r="Y7" s="58" t="str">
+      <c r="Y7" s="70" t="str">
         <f>G7</f>
         <v>Sprint: September</v>
       </c>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="60"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="72"/>
       <c r="AF7" s="15"/>
       <c r="AG7" s="15"/>
     </row>
@@ -1625,11 +1607,11 @@
       <c r="F8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
       <c r="J8" s="22" t="s">
         <v>9</v>
       </c>
@@ -1648,11 +1630,11 @@
       <c r="O8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="P8" s="61" t="s">
+      <c r="P8" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
       <c r="S8" s="22" t="s">
         <v>8</v>
       </c>
@@ -1671,11 +1653,11 @@
       <c r="X8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="Y8" s="61" t="s">
+      <c r="Y8" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="65"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="77"/>
       <c r="AC8" s="24"/>
       <c r="AF8" s="15"/>
       <c r="AG8" s="15"/>
@@ -1695,14 +1677,14 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5">
-        <f t="shared" ref="F9:F16" si="0">SUM(D9-C9)</f>
+        <f t="shared" ref="F9:F15" si="0">SUM(D9-C9)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="21" t="s">
         <v>9</v>
       </c>
@@ -1717,14 +1699,14 @@
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="5">
-        <f t="shared" ref="O9:O13" si="1">SUM(M9-L9)</f>
+        <f t="shared" ref="O9:O12" si="1">SUM(M9-L9)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P9" s="66" t="s">
+      <c r="P9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="68"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="80"/>
       <c r="S9" s="22" t="s">
         <v>8</v>
       </c>
@@ -1742,11 +1724,11 @@
         <f t="shared" ref="X9:X10" si="2">SUM(V9-U9)</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="Y9" s="66" t="s">
+      <c r="Y9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="68"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="80"/>
       <c r="AB9" s="25" t="s">
         <v>10</v>
       </c>
@@ -1774,11 +1756,11 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1796,11 +1778,11 @@
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="P10" s="66" t="s">
+      <c r="P10" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="68"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="80"/>
       <c r="S10" s="22" t="s">
         <v>8</v>
       </c>
@@ -1818,11 +1800,11 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="Y10" s="69" t="s">
+      <c r="Y10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="70"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="96"/>
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
     </row>
@@ -1844,11 +1826,11 @@
         <f t="shared" si="0"/>
         <v>0.22916666666666663</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="21" t="s">
         <v>9</v>
       </c>
@@ -1888,11 +1870,11 @@
         <f>SUM(V11-U11)</f>
         <v>0.125</v>
       </c>
-      <c r="Y11" s="69" t="s">
+      <c r="Y11" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="70"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="96"/>
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
     </row>
@@ -1914,21 +1896,21 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="86">
+      <c r="K12" s="50">
         <v>43378</v>
       </c>
-      <c r="L12" s="87">
+      <c r="L12" s="51">
         <v>0.29166666666666669</v>
       </c>
-      <c r="M12" s="87">
+      <c r="M12" s="51">
         <v>0.5</v>
       </c>
       <c r="N12" s="5"/>
@@ -1937,36 +1919,36 @@
         <v>0.20833333333333331</v>
       </c>
       <c r="P12" s="88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="89"/>
       <c r="R12" s="90"/>
       <c r="S12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="96">
+      <c r="T12" s="55">
         <v>43378</v>
       </c>
-      <c r="U12" s="97">
+      <c r="U12" s="51">
         <v>0.29166666666666669</v>
       </c>
-      <c r="V12" s="97">
+      <c r="V12" s="51">
         <v>0.5</v>
       </c>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98">
-        <f t="shared" ref="X12:X14" si="3">SUM(V12-U12)</f>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56">
+        <f t="shared" ref="X12" si="3">SUM(V12-U12)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="Y12" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="100"/>
-      <c r="AA12" s="101"/>
+      <c r="Y12" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="93"/>
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
     </row>
-    <row r="13" spans="1:33" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
@@ -1984,59 +1966,59 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="23" t="s">
+      <c r="H13" s="79"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="91">
+      <c r="K13" s="50">
         <v>43378</v>
       </c>
-      <c r="L13" s="92">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="M13" s="92">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="N13" s="11"/>
+      <c r="L13" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M13" s="51">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N13" s="5"/>
       <c r="O13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.27083333333333326</v>
-      </c>
-      <c r="P13" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="27" t="s">
+        <f t="shared" ref="O13" si="4">SUM(M13-L13)</f>
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="P13" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T13" s="91">
+      <c r="T13" s="55">
         <v>43378</v>
       </c>
-      <c r="U13" s="92">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="V13" s="92">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="W13" s="11"/>
-      <c r="X13" s="5">
-        <f t="shared" si="3"/>
-        <v>0.27083333333333326</v>
-      </c>
-      <c r="Y13" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="73"/>
+      <c r="U13" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="V13" s="51">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56">
+        <f t="shared" ref="X13" si="5">SUM(V13-U13)</f>
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="Y13" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="93"/>
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -2054,37 +2036,63 @@
         <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="O14" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="X14" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="52">
+        <v>43388</v>
+      </c>
+      <c r="L14" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M14" s="53">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="5">
+        <f t="shared" ref="O14" si="6">SUM(M14-L14)</f>
+        <v>0.27083333333333326</v>
+      </c>
+      <c r="P14" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="52">
+        <v>43388</v>
+      </c>
+      <c r="U14" s="53">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="V14" s="53">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="W14" s="11"/>
+      <c r="X14" s="5">
+        <f t="shared" ref="X14" si="7">SUM(V14-U14)</f>
+        <v>0.27083333333333326</v>
+      </c>
+      <c r="Y14" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="84"/>
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:33" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B15" s="48">
         <v>43376</v>
       </c>
       <c r="C15" s="5">
@@ -2098,29 +2106,29 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333337</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="80"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="O15" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="X15" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
       <c r="AB15" s="37"/>
       <c r="AC15" s="38"/>
       <c r="AD15" s="15"/>
@@ -2128,23 +2136,23 @@
       <c r="AF15" s="15"/>
       <c r="AG15" s="15"/>
     </row>
-    <row r="16" spans="1:33" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:33" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="48">
         <v>43380</v>
       </c>
-      <c r="C16" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E16" s="12"/>
+      <c r="C16" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22916666666666663</v>
+        <f t="shared" ref="F16" si="8">SUM(D16-C16)</f>
+        <v>0.20833333333333337</v>
       </c>
       <c r="G16" s="78" t="s">
         <v>19</v>
@@ -2156,126 +2164,139 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="34"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
       <c r="S16" s="15"/>
       <c r="T16" s="34"/>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
       <c r="X16" s="9"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="15"/>
-      <c r="AD16" s="102"/>
+      <c r="AD16" s="57"/>
       <c r="AE16" s="15"/>
       <c r="AF16" s="15"/>
       <c r="AG16" s="15"/>
     </row>
-    <row r="17" spans="1:33" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="75"/>
+    <row r="17" spans="1:33" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="13">
+        <v>43390</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="5">
+        <f t="shared" ref="F17" si="9">SUM(D17-C17)</f>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="G17" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="34"/>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
       <c r="S17" s="15"/>
       <c r="T17" s="34"/>
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
       <c r="X17" s="9"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
-      <c r="AD17" s="102"/>
+      <c r="AD17" s="57"/>
       <c r="AE17" s="15"/>
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
     </row>
-    <row r="18" spans="1:33" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
+      <c r="F18" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="15"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
       <c r="S18" s="15"/>
       <c r="T18" s="34"/>
       <c r="U18" s="35"/>
       <c r="V18" s="39"/>
       <c r="W18" s="35"/>
       <c r="X18" s="9"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="15"/>
-      <c r="AD18" s="102"/>
+      <c r="AD18" s="57"/>
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
     </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="15"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
       <c r="J19" s="15"/>
       <c r="K19" s="34"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
       <c r="S19" s="15"/>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
       <c r="X19" s="9"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
@@ -2290,27 +2311,27 @@
       <c r="D20" s="39"/>
       <c r="E20" s="15"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="15"/>
       <c r="K20" s="34"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
       <c r="S20" s="15"/>
       <c r="T20" s="34"/>
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
       <c r="X20" s="9"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
@@ -2325,27 +2346,27 @@
       <c r="D21" s="39"/>
       <c r="E21" s="15"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
       <c r="J21" s="15"/>
       <c r="K21" s="34"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
       <c r="S21" s="15"/>
       <c r="T21" s="34"/>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
       <c r="X21" s="9"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
@@ -2360,27 +2381,27 @@
       <c r="D22" s="39"/>
       <c r="E22" s="15"/>
       <c r="F22" s="39"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
       <c r="J22" s="15"/>
       <c r="K22" s="34"/>
       <c r="L22" s="35"/>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
       <c r="S22" s="15"/>
       <c r="T22" s="34"/>
       <c r="U22" s="39"/>
       <c r="V22" s="39"/>
       <c r="W22" s="15"/>
       <c r="X22" s="9"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
@@ -2395,27 +2416,27 @@
       <c r="D23" s="39"/>
       <c r="E23" s="15"/>
       <c r="F23" s="39"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
       <c r="J23" s="15"/>
       <c r="K23" s="34"/>
       <c r="L23" s="39"/>
       <c r="M23" s="35"/>
       <c r="N23" s="15"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
       <c r="S23" s="15"/>
       <c r="T23" s="34"/>
       <c r="U23" s="39"/>
       <c r="V23" s="39"/>
       <c r="W23" s="15"/>
       <c r="X23" s="9"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
@@ -2439,18 +2460,18 @@
       <c r="M24" s="39"/>
       <c r="N24" s="15"/>
       <c r="O24" s="39"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
       <c r="S24" s="15"/>
       <c r="T24" s="34"/>
       <c r="U24" s="39"/>
       <c r="V24" s="39"/>
       <c r="W24" s="15"/>
       <c r="X24" s="9"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="54"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
@@ -2474,18 +2495,18 @@
       <c r="M25" s="39"/>
       <c r="N25" s="15"/>
       <c r="O25" s="39"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
       <c r="S25" s="15"/>
       <c r="T25" s="34"/>
       <c r="U25" s="39"/>
       <c r="V25" s="39"/>
       <c r="W25" s="15"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
@@ -2500,27 +2521,27 @@
       <c r="D26" s="35"/>
       <c r="E26" s="15"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="15"/>
       <c r="K26" s="34"/>
       <c r="L26" s="39"/>
       <c r="M26" s="39"/>
       <c r="N26" s="15"/>
       <c r="O26" s="39"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
       <c r="S26" s="15"/>
       <c r="T26" s="34"/>
       <c r="U26" s="39"/>
       <c r="V26" s="39"/>
       <c r="W26" s="15"/>
       <c r="X26" s="9"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
@@ -2544,18 +2565,18 @@
       <c r="M27" s="39"/>
       <c r="N27" s="15"/>
       <c r="O27" s="39"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
       <c r="S27" s="15"/>
       <c r="T27" s="34"/>
       <c r="U27" s="39"/>
       <c r="V27" s="39"/>
       <c r="W27" s="15"/>
       <c r="X27" s="9"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
@@ -2570,8 +2591,8 @@
       <c r="D28" s="39"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
@@ -2588,9 +2609,9 @@
       <c r="V28" s="39"/>
       <c r="W28" s="15"/>
       <c r="X28" s="9"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
@@ -2605,8 +2626,8 @@
       <c r="D29" s="39"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
@@ -2623,9 +2644,9 @@
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
       <c r="X29" s="9"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
@@ -2669,33 +2690,33 @@
       <c r="AG30" s="15"/>
     </row>
     <row r="31" spans="1:33" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
       <c r="AB31" s="15"/>
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
@@ -2705,32 +2726,32 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
       <c r="S32" s="15"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="69"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
       <c r="AD32" s="15"/>
@@ -2745,27 +2766,27 @@
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
       <c r="J33" s="31"/>
       <c r="K33" s="32"/>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
       <c r="S33" s="31"/>
       <c r="T33" s="32"/>
       <c r="U33" s="31"/>
       <c r="V33" s="31"/>
       <c r="W33" s="31"/>
       <c r="X33" s="31"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="47"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
       <c r="AB33" s="37"/>
       <c r="AC33" s="38"/>
       <c r="AD33" s="15"/>
@@ -2780,27 +2801,27 @@
       <c r="D34" s="39"/>
       <c r="E34" s="15"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
       <c r="J34" s="15"/>
       <c r="K34" s="34"/>
       <c r="L34" s="39"/>
       <c r="M34" s="39"/>
       <c r="N34" s="15"/>
       <c r="O34" s="39"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
       <c r="S34" s="15"/>
       <c r="T34" s="34"/>
       <c r="U34" s="39"/>
       <c r="V34" s="39"/>
       <c r="W34" s="15"/>
       <c r="X34" s="39"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
       <c r="AB34" s="15"/>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
@@ -2815,27 +2836,27 @@
       <c r="D35" s="39"/>
       <c r="E35" s="15"/>
       <c r="F35" s="39"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
       <c r="J35" s="15"/>
       <c r="K35" s="34"/>
       <c r="L35" s="39"/>
       <c r="M35" s="39"/>
       <c r="N35" s="15"/>
       <c r="O35" s="39"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
       <c r="S35" s="15"/>
       <c r="T35" s="34"/>
       <c r="U35" s="39"/>
       <c r="V35" s="39"/>
       <c r="W35" s="15"/>
       <c r="X35" s="39"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
       <c r="AB35" s="15"/>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
@@ -2850,27 +2871,27 @@
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
       <c r="F36" s="39"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
       <c r="J36" s="15"/>
       <c r="K36" s="34"/>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
       <c r="S36" s="15"/>
       <c r="T36" s="34"/>
       <c r="U36" s="35"/>
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="39"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
       <c r="AB36" s="15"/>
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
@@ -2885,27 +2906,27 @@
       <c r="D37" s="39"/>
       <c r="E37" s="15"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
       <c r="J37" s="15"/>
       <c r="K37" s="34"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
       <c r="N37" s="15"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
       <c r="S37" s="15"/>
       <c r="T37" s="34"/>
       <c r="U37" s="35"/>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
       <c r="X37" s="39"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
       <c r="AB37" s="15"/>
       <c r="AC37" s="15"/>
       <c r="AD37" s="15"/>
@@ -2920,27 +2941,27 @@
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
       <c r="J38" s="15"/>
       <c r="K38" s="34"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
       <c r="N38" s="35"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
       <c r="S38" s="15"/>
       <c r="T38" s="34"/>
       <c r="U38" s="35"/>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
       <c r="X38" s="39"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="15"/>
       <c r="AD38" s="15"/>
@@ -2955,27 +2976,27 @@
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
       <c r="J39" s="15"/>
       <c r="K39" s="34"/>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
       <c r="S39" s="15"/>
       <c r="T39" s="34"/>
       <c r="U39" s="39"/>
       <c r="V39" s="39"/>
       <c r="W39" s="15"/>
       <c r="X39" s="39"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
+      <c r="Y39" s="65"/>
+      <c r="Z39" s="65"/>
+      <c r="AA39" s="65"/>
       <c r="AB39" s="15"/>
       <c r="AC39" s="15"/>
       <c r="AD39" s="15"/>
@@ -3008,9 +3029,9 @@
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
       <c r="X40" s="39"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="65"/>
       <c r="AB40" s="15"/>
       <c r="AC40" s="15"/>
       <c r="AD40" s="15"/>
@@ -3025,27 +3046,27 @@
       <c r="D41" s="39"/>
       <c r="E41" s="15"/>
       <c r="F41" s="39"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
       <c r="J41" s="15"/>
       <c r="K41" s="43"/>
       <c r="L41" s="39"/>
       <c r="M41" s="39"/>
       <c r="N41" s="15"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
       <c r="S41" s="15"/>
       <c r="T41" s="34"/>
       <c r="U41" s="35"/>
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
       <c r="X41" s="39"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="15"/>
       <c r="AD41" s="15"/>
@@ -3069,9 +3090,9 @@
       <c r="M42" s="39"/>
       <c r="N42" s="15"/>
       <c r="O42" s="39"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
       <c r="S42" s="15"/>
       <c r="T42" s="34"/>
       <c r="U42" s="35"/>
@@ -3104,18 +3125,18 @@
       <c r="M43" s="39"/>
       <c r="N43" s="15"/>
       <c r="O43" s="39"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
       <c r="S43" s="15"/>
       <c r="T43" s="34"/>
       <c r="U43" s="39"/>
       <c r="V43" s="39"/>
       <c r="W43" s="15"/>
       <c r="X43" s="39"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
       <c r="AB43" s="15"/>
       <c r="AC43" s="15"/>
       <c r="AD43" s="15"/>
@@ -3124,33 +3145,33 @@
       <c r="AG43" s="15"/>
     </row>
     <row r="44" spans="1:56" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="48"/>
-      <c r="Z44" s="48"/>
-      <c r="AA44" s="48"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="60"/>
+      <c r="X44" s="60"/>
+      <c r="Y44" s="60"/>
+      <c r="Z44" s="60"/>
+      <c r="AA44" s="60"/>
       <c r="AB44" s="15"/>
       <c r="AC44" s="15"/>
       <c r="AD44" s="15"/>
@@ -3158,54 +3179,54 @@
       <c r="AF44" s="35"/>
       <c r="AG44" s="35"/>
       <c r="AI44" s="9"/>
-      <c r="AJ44" s="53"/>
-      <c r="AK44" s="53"/>
-      <c r="AL44" s="53"/>
+      <c r="AJ44" s="65"/>
+      <c r="AK44" s="65"/>
+      <c r="AL44" s="65"/>
       <c r="AM44" s="15"/>
       <c r="AN44" s="7"/>
       <c r="AO44" s="8"/>
       <c r="AP44" s="8"/>
       <c r="AR44" s="8"/>
-      <c r="AS44" s="50"/>
-      <c r="AT44" s="50"/>
-      <c r="AU44" s="50"/>
+      <c r="AS44" s="62"/>
+      <c r="AT44" s="62"/>
+      <c r="AU44" s="62"/>
       <c r="AV44" s="15"/>
       <c r="AW44" s="7"/>
       <c r="AX44" s="8"/>
       <c r="AY44" s="8"/>
       <c r="BA44" s="8"/>
-      <c r="BB44" s="50"/>
-      <c r="BC44" s="50"/>
-      <c r="BD44" s="50"/>
+      <c r="BB44" s="62"/>
+      <c r="BC44" s="62"/>
+      <c r="BD44" s="62"/>
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="57"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="51"/>
-      <c r="Z45" s="57"/>
-      <c r="AA45" s="57"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="69"/>
+      <c r="AA45" s="69"/>
       <c r="AB45" s="15"/>
       <c r="AC45" s="15"/>
       <c r="AD45" s="15"/>
@@ -3217,17 +3238,17 @@
       <c r="AO45" s="8"/>
       <c r="AP45" s="8"/>
       <c r="AR45" s="8"/>
-      <c r="AS45" s="50"/>
-      <c r="AT45" s="50"/>
-      <c r="AU45" s="50"/>
+      <c r="AS45" s="62"/>
+      <c r="AT45" s="62"/>
+      <c r="AU45" s="62"/>
       <c r="AV45" s="15"/>
       <c r="AW45" s="7"/>
       <c r="AX45" s="8"/>
       <c r="AY45" s="8"/>
       <c r="BA45" s="8"/>
-      <c r="BB45" s="50"/>
-      <c r="BC45" s="50"/>
-      <c r="BD45" s="50"/>
+      <c r="BB45" s="62"/>
+      <c r="BC45" s="62"/>
+      <c r="BD45" s="62"/>
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
@@ -3236,44 +3257,44 @@
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
       <c r="J46" s="31"/>
       <c r="K46" s="32"/>
       <c r="L46" s="31"/>
       <c r="M46" s="31"/>
       <c r="N46" s="31"/>
       <c r="O46" s="31"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="47"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="59"/>
       <c r="S46" s="31"/>
       <c r="T46" s="32"/>
       <c r="U46" s="31"/>
       <c r="V46" s="31"/>
       <c r="W46" s="31"/>
       <c r="X46" s="31"/>
-      <c r="Y46" s="47"/>
-      <c r="Z46" s="47"/>
-      <c r="AA46" s="47"/>
+      <c r="Y46" s="59"/>
+      <c r="Z46" s="59"/>
+      <c r="AA46" s="59"/>
       <c r="AB46" s="37"/>
       <c r="AC46" s="38"/>
       <c r="AD46" s="15"/>
       <c r="AE46" s="34"/>
       <c r="AF46" s="39"/>
       <c r="AG46" s="39"/>
-      <c r="AJ46" s="51"/>
-      <c r="AK46" s="51"/>
+      <c r="AJ46" s="63"/>
+      <c r="AK46" s="63"/>
       <c r="AR46" s="16"/>
       <c r="AV46" s="15"/>
       <c r="AW46" s="7"/>
       <c r="AX46" s="8"/>
       <c r="AY46" s="8"/>
       <c r="BA46" s="8"/>
-      <c r="BB46" s="50"/>
-      <c r="BC46" s="50"/>
-      <c r="BD46" s="50"/>
+      <c r="BB46" s="62"/>
+      <c r="BC46" s="62"/>
+      <c r="BD46" s="62"/>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
@@ -3282,39 +3303,39 @@
       <c r="D47" s="39"/>
       <c r="E47" s="15"/>
       <c r="F47" s="39"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
       <c r="J47" s="15"/>
       <c r="K47" s="34"/>
       <c r="L47" s="39"/>
       <c r="M47" s="39"/>
       <c r="N47" s="15"/>
       <c r="O47" s="39"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="65"/>
       <c r="S47" s="15"/>
       <c r="T47" s="34"/>
       <c r="U47" s="39"/>
       <c r="V47" s="39"/>
       <c r="W47" s="15"/>
       <c r="X47" s="39"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
+      <c r="Y47" s="65"/>
+      <c r="Z47" s="65"/>
+      <c r="AA47" s="65"/>
       <c r="AB47" s="15"/>
       <c r="AC47" s="15"/>
       <c r="AD47" s="15"/>
       <c r="AE47" s="42"/>
       <c r="AF47" s="39"/>
       <c r="AG47" s="39"/>
-      <c r="AJ47" s="52"/>
-      <c r="AK47" s="52"/>
+      <c r="AJ47" s="64"/>
+      <c r="AK47" s="64"/>
       <c r="BA47" s="16"/>
-      <c r="BB47" s="52"/>
-      <c r="BC47" s="52"/>
-      <c r="BD47" s="52"/>
+      <c r="BB47" s="64"/>
+      <c r="BC47" s="64"/>
+      <c r="BD47" s="64"/>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
@@ -3323,27 +3344,27 @@
       <c r="D48" s="39"/>
       <c r="E48" s="15"/>
       <c r="F48" s="39"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
       <c r="J48" s="15"/>
       <c r="K48" s="34"/>
       <c r="L48" s="39"/>
       <c r="M48" s="39"/>
       <c r="N48" s="15"/>
       <c r="O48" s="39"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
       <c r="S48" s="15"/>
       <c r="T48" s="34"/>
       <c r="U48" s="39"/>
       <c r="V48" s="39"/>
       <c r="W48" s="15"/>
       <c r="X48" s="39"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
+      <c r="Y48" s="65"/>
+      <c r="Z48" s="65"/>
+      <c r="AA48" s="65"/>
       <c r="AB48" s="15"/>
       <c r="AC48" s="15"/>
       <c r="AD48" s="15"/>
@@ -3358,27 +3379,27 @@
       <c r="D49" s="39"/>
       <c r="E49" s="35"/>
       <c r="F49" s="39"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
       <c r="J49" s="15"/>
       <c r="K49" s="34"/>
       <c r="L49" s="39"/>
       <c r="M49" s="39"/>
       <c r="N49" s="35"/>
       <c r="O49" s="39"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="65"/>
       <c r="S49" s="15"/>
       <c r="T49" s="34"/>
       <c r="U49" s="39"/>
       <c r="V49" s="39"/>
       <c r="W49" s="35"/>
       <c r="X49" s="39"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
+      <c r="Y49" s="65"/>
+      <c r="Z49" s="65"/>
+      <c r="AA49" s="65"/>
       <c r="AB49" s="15"/>
       <c r="AC49" s="15"/>
       <c r="AD49" s="15"/>
@@ -3393,27 +3414,27 @@
       <c r="D50" s="39"/>
       <c r="E50" s="15"/>
       <c r="F50" s="39"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
       <c r="J50" s="15"/>
       <c r="K50" s="34"/>
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
       <c r="N50" s="15"/>
       <c r="O50" s="39"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="65"/>
       <c r="S50" s="15"/>
       <c r="T50" s="34"/>
       <c r="U50" s="39"/>
       <c r="V50" s="39"/>
       <c r="W50" s="15"/>
       <c r="X50" s="39"/>
-      <c r="Y50" s="53"/>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
+      <c r="Y50" s="65"/>
+      <c r="Z50" s="65"/>
+      <c r="AA50" s="65"/>
       <c r="AB50" s="15"/>
       <c r="AC50" s="15"/>
       <c r="AD50" s="15"/>
@@ -3428,27 +3449,27 @@
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
       <c r="F51" s="39"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
       <c r="J51" s="15"/>
       <c r="K51" s="34"/>
       <c r="L51" s="35"/>
       <c r="M51" s="35"/>
       <c r="N51" s="35"/>
       <c r="O51" s="39"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="65"/>
       <c r="S51" s="15"/>
       <c r="T51" s="34"/>
       <c r="U51" s="35"/>
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
       <c r="X51" s="39"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="53"/>
+      <c r="Y51" s="65"/>
+      <c r="Z51" s="65"/>
+      <c r="AA51" s="65"/>
       <c r="AB51" s="15"/>
       <c r="AC51" s="15"/>
       <c r="AD51" s="15"/>
@@ -3463,27 +3484,27 @@
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
       <c r="F52" s="39"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
       <c r="J52" s="15"/>
       <c r="K52" s="34"/>
       <c r="L52" s="35"/>
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
       <c r="O52" s="39"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
       <c r="S52" s="15"/>
       <c r="T52" s="34"/>
       <c r="U52" s="35"/>
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
       <c r="X52" s="39"/>
-      <c r="Y52" s="53"/>
-      <c r="Z52" s="53"/>
-      <c r="AA52" s="53"/>
+      <c r="Y52" s="65"/>
+      <c r="Z52" s="65"/>
+      <c r="AA52" s="65"/>
       <c r="AB52" s="15"/>
       <c r="AC52" s="15"/>
       <c r="AD52" s="15"/>
@@ -3516,9 +3537,9 @@
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
       <c r="X53" s="9"/>
-      <c r="Y53" s="53"/>
-      <c r="Z53" s="53"/>
-      <c r="AA53" s="53"/>
+      <c r="Y53" s="65"/>
+      <c r="Z53" s="65"/>
+      <c r="AA53" s="65"/>
       <c r="AB53" s="15"/>
       <c r="AC53" s="15"/>
       <c r="AD53" s="15"/>
@@ -3533,27 +3554,27 @@
       <c r="D54" s="39"/>
       <c r="E54" s="15"/>
       <c r="F54" s="39"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
       <c r="J54" s="15"/>
       <c r="K54" s="43"/>
       <c r="L54" s="39"/>
       <c r="M54" s="39"/>
       <c r="N54" s="15"/>
       <c r="O54" s="39"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="65"/>
       <c r="S54" s="15"/>
       <c r="T54" s="34"/>
       <c r="U54" s="35"/>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
       <c r="X54" s="39"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="54"/>
+      <c r="Y54" s="66"/>
+      <c r="Z54" s="66"/>
+      <c r="AA54" s="66"/>
       <c r="AB54" s="15"/>
       <c r="AC54" s="15"/>
       <c r="AD54" s="15"/>
@@ -3562,33 +3583,33 @@
       <c r="AG54" s="15"/>
     </row>
     <row r="55" spans="1:33" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="48"/>
-      <c r="V55" s="48"/>
-      <c r="W55" s="48"/>
-      <c r="X55" s="48"/>
-      <c r="Y55" s="48"/>
-      <c r="Z55" s="48"/>
-      <c r="AA55" s="48"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="60"/>
+      <c r="Y55" s="60"/>
+      <c r="Z55" s="60"/>
+      <c r="AA55" s="60"/>
       <c r="AB55" s="15"/>
       <c r="AC55" s="15"/>
       <c r="AD55" s="15"/>
@@ -3597,33 +3618,33 @@
       <c r="AG55" s="15"/>
     </row>
     <row r="56" spans="1:33" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="48"/>
-      <c r="U56" s="48"/>
-      <c r="V56" s="48"/>
-      <c r="W56" s="48"/>
-      <c r="X56" s="48"/>
-      <c r="Y56" s="48"/>
-      <c r="Z56" s="48"/>
-      <c r="AA56" s="48"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="60"/>
+      <c r="X56" s="60"/>
+      <c r="Y56" s="60"/>
+      <c r="Z56" s="60"/>
+      <c r="AA56" s="60"/>
       <c r="AB56" s="15"/>
       <c r="AC56" s="15"/>
       <c r="AD56" s="15"/>
@@ -3632,33 +3653,33 @@
       <c r="AG56" s="15"/>
     </row>
     <row r="57" spans="1:33" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="48"/>
-      <c r="U57" s="48"/>
-      <c r="V57" s="48"/>
-      <c r="W57" s="48"/>
-      <c r="X57" s="48"/>
-      <c r="Y57" s="48"/>
-      <c r="Z57" s="48"/>
-      <c r="AA57" s="48"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="60"/>
+      <c r="Z57" s="60"/>
+      <c r="AA57" s="60"/>
       <c r="AB57" s="15"/>
       <c r="AC57" s="15"/>
       <c r="AD57" s="15"/>
@@ -3673,27 +3694,27 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
       <c r="N58" s="15"/>
       <c r="O58" s="15"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="49"/>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="61"/>
+      <c r="R58" s="61"/>
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>
       <c r="U58" s="15"/>
       <c r="V58" s="15"/>
       <c r="W58" s="15"/>
       <c r="X58" s="15"/>
-      <c r="Y58" s="49"/>
-      <c r="Z58" s="49"/>
-      <c r="AA58" s="49"/>
+      <c r="Y58" s="61"/>
+      <c r="Z58" s="61"/>
+      <c r="AA58" s="61"/>
       <c r="AB58" s="15"/>
       <c r="AC58" s="15"/>
       <c r="AD58" s="15"/>
@@ -3708,27 +3729,27 @@
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="49"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
       <c r="U59" s="15"/>
       <c r="V59" s="15"/>
       <c r="W59" s="15"/>
       <c r="X59" s="15"/>
-      <c r="Y59" s="49"/>
-      <c r="Z59" s="49"/>
-      <c r="AA59" s="49"/>
+      <c r="Y59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="61"/>
       <c r="AB59" s="15"/>
       <c r="AC59" s="38"/>
       <c r="AD59" s="15"/>
@@ -3743,27 +3764,27 @@
       <c r="D60" s="39"/>
       <c r="E60" s="15"/>
       <c r="F60" s="39"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
       <c r="J60" s="15"/>
       <c r="K60" s="34"/>
       <c r="L60" s="39"/>
       <c r="M60" s="39"/>
       <c r="N60" s="15"/>
       <c r="O60" s="39"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="49"/>
-      <c r="R60" s="49"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="61"/>
       <c r="S60" s="15"/>
       <c r="T60" s="34"/>
       <c r="U60" s="39"/>
       <c r="V60" s="39"/>
       <c r="W60" s="15"/>
       <c r="X60" s="39"/>
-      <c r="Y60" s="49"/>
-      <c r="Z60" s="49"/>
-      <c r="AA60" s="49"/>
+      <c r="Y60" s="61"/>
+      <c r="Z60" s="61"/>
+      <c r="AA60" s="61"/>
       <c r="AB60" s="15"/>
       <c r="AC60" s="15"/>
       <c r="AD60" s="15"/>
@@ -3778,27 +3799,27 @@
       <c r="D61" s="39"/>
       <c r="E61" s="15"/>
       <c r="F61" s="39"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
       <c r="J61" s="15"/>
       <c r="K61" s="34"/>
       <c r="L61" s="39"/>
       <c r="M61" s="39"/>
       <c r="N61" s="15"/>
       <c r="O61" s="39"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="49"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
       <c r="S61" s="15"/>
       <c r="T61" s="34"/>
       <c r="U61" s="39"/>
       <c r="V61" s="39"/>
       <c r="W61" s="15"/>
       <c r="X61" s="39"/>
-      <c r="Y61" s="49"/>
-      <c r="Z61" s="49"/>
-      <c r="AA61" s="49"/>
+      <c r="Y61" s="61"/>
+      <c r="Z61" s="61"/>
+      <c r="AA61" s="61"/>
       <c r="AB61" s="15"/>
       <c r="AC61" s="15"/>
       <c r="AD61" s="15"/>
@@ -3813,27 +3834,27 @@
       <c r="D62" s="39"/>
       <c r="E62" s="15"/>
       <c r="F62" s="39"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
       <c r="J62" s="15"/>
       <c r="K62" s="34"/>
       <c r="L62" s="39"/>
       <c r="M62" s="39"/>
       <c r="N62" s="15"/>
       <c r="O62" s="39"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="49"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="61"/>
       <c r="S62" s="15"/>
       <c r="T62" s="34"/>
       <c r="U62" s="39"/>
       <c r="V62" s="39"/>
       <c r="W62" s="15"/>
       <c r="X62" s="39"/>
-      <c r="Y62" s="49"/>
-      <c r="Z62" s="49"/>
-      <c r="AA62" s="49"/>
+      <c r="Y62" s="61"/>
+      <c r="Z62" s="61"/>
+      <c r="AA62" s="61"/>
       <c r="AB62" s="15"/>
       <c r="AC62" s="15"/>
       <c r="AD62" s="15"/>
@@ -3848,27 +3869,27 @@
       <c r="D63" s="39"/>
       <c r="E63" s="15"/>
       <c r="F63" s="39"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
       <c r="J63" s="15"/>
       <c r="K63" s="34"/>
       <c r="L63" s="39"/>
       <c r="M63" s="39"/>
       <c r="N63" s="15"/>
       <c r="O63" s="39"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
       <c r="S63" s="15"/>
       <c r="T63" s="34"/>
       <c r="U63" s="39"/>
       <c r="V63" s="39"/>
       <c r="W63" s="15"/>
       <c r="X63" s="39"/>
-      <c r="Y63" s="49"/>
-      <c r="Z63" s="49"/>
-      <c r="AA63" s="49"/>
+      <c r="Y63" s="61"/>
+      <c r="Z63" s="61"/>
+      <c r="AA63" s="61"/>
       <c r="AB63" s="15"/>
       <c r="AC63" s="15"/>
       <c r="AD63" s="15"/>
@@ -3883,27 +3904,27 @@
       <c r="D64" s="39"/>
       <c r="E64" s="15"/>
       <c r="F64" s="39"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
       <c r="J64" s="15"/>
       <c r="K64" s="34"/>
       <c r="L64" s="39"/>
       <c r="M64" s="39"/>
       <c r="N64" s="15"/>
       <c r="O64" s="39"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="49"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
       <c r="S64" s="15"/>
       <c r="T64" s="34"/>
       <c r="U64" s="39"/>
       <c r="V64" s="39"/>
       <c r="W64" s="15"/>
       <c r="X64" s="39"/>
-      <c r="Y64" s="49"/>
-      <c r="Z64" s="49"/>
-      <c r="AA64" s="49"/>
+      <c r="Y64" s="61"/>
+      <c r="Z64" s="61"/>
+      <c r="AA64" s="61"/>
       <c r="AB64" s="15"/>
       <c r="AC64" s="15"/>
       <c r="AD64" s="15"/>
@@ -3918,27 +3939,27 @@
       <c r="D65" s="39"/>
       <c r="E65" s="15"/>
       <c r="F65" s="39"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
       <c r="J65" s="15"/>
       <c r="K65" s="34"/>
       <c r="L65" s="39"/>
       <c r="M65" s="39"/>
       <c r="N65" s="15"/>
       <c r="O65" s="39"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
       <c r="S65" s="15"/>
       <c r="T65" s="34"/>
       <c r="U65" s="39"/>
       <c r="V65" s="39"/>
       <c r="W65" s="15"/>
       <c r="X65" s="39"/>
-      <c r="Y65" s="49"/>
-      <c r="Z65" s="49"/>
-      <c r="AA65" s="49"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
       <c r="AB65" s="15"/>
       <c r="AC65" s="15"/>
       <c r="AD65" s="15"/>
@@ -3953,27 +3974,27 @@
       <c r="D66" s="39"/>
       <c r="E66" s="15"/>
       <c r="F66" s="39"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
       <c r="J66" s="15"/>
       <c r="K66" s="34"/>
       <c r="L66" s="39"/>
       <c r="M66" s="39"/>
       <c r="N66" s="15"/>
       <c r="O66" s="39"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="49"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
       <c r="S66" s="15"/>
       <c r="T66" s="34"/>
       <c r="U66" s="39"/>
       <c r="V66" s="39"/>
       <c r="W66" s="15"/>
       <c r="X66" s="39"/>
-      <c r="Y66" s="49"/>
-      <c r="Z66" s="49"/>
-      <c r="AA66" s="49"/>
+      <c r="Y66" s="61"/>
+      <c r="Z66" s="61"/>
+      <c r="AA66" s="61"/>
       <c r="AB66" s="15"/>
       <c r="AC66" s="15"/>
       <c r="AD66" s="15"/>
@@ -3988,27 +4009,27 @@
       <c r="D67" s="39"/>
       <c r="E67" s="15"/>
       <c r="F67" s="39"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
       <c r="J67" s="15"/>
       <c r="K67" s="34"/>
       <c r="L67" s="39"/>
       <c r="M67" s="39"/>
       <c r="N67" s="15"/>
       <c r="O67" s="39"/>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="49"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="61"/>
       <c r="S67" s="15"/>
       <c r="T67" s="34"/>
       <c r="U67" s="39"/>
       <c r="V67" s="39"/>
       <c r="W67" s="15"/>
       <c r="X67" s="39"/>
-      <c r="Y67" s="49"/>
-      <c r="Z67" s="49"/>
-      <c r="AA67" s="49"/>
+      <c r="Y67" s="61"/>
+      <c r="Z67" s="61"/>
+      <c r="AA67" s="61"/>
       <c r="AB67" s="15"/>
       <c r="AC67" s="15"/>
       <c r="AD67" s="15"/>
@@ -4023,27 +4044,27 @@
       <c r="D68" s="39"/>
       <c r="E68" s="15"/>
       <c r="F68" s="39"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
       <c r="J68" s="15"/>
       <c r="K68" s="34"/>
       <c r="L68" s="39"/>
       <c r="M68" s="39"/>
       <c r="N68" s="15"/>
       <c r="O68" s="39"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="49"/>
-      <c r="R68" s="49"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="61"/>
       <c r="S68" s="15"/>
       <c r="T68" s="34"/>
       <c r="U68" s="39"/>
       <c r="V68" s="39"/>
       <c r="W68" s="15"/>
       <c r="X68" s="39"/>
-      <c r="Y68" s="49"/>
-      <c r="Z68" s="49"/>
-      <c r="AA68" s="49"/>
+      <c r="Y68" s="61"/>
+      <c r="Z68" s="61"/>
+      <c r="AA68" s="61"/>
       <c r="AB68" s="15"/>
       <c r="AC68" s="15"/>
       <c r="AD68" s="15"/>
@@ -4122,33 +4143,33 @@
       <c r="AG70" s="15"/>
     </row>
     <row r="71" spans="1:33" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="48"/>
-      <c r="P71" s="48"/>
-      <c r="Q71" s="48"/>
-      <c r="R71" s="48"/>
-      <c r="S71" s="48"/>
-      <c r="T71" s="48"/>
-      <c r="U71" s="48"/>
-      <c r="V71" s="48"/>
-      <c r="W71" s="48"/>
-      <c r="X71" s="48"/>
-      <c r="Y71" s="48"/>
-      <c r="Z71" s="48"/>
-      <c r="AA71" s="48"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="60"/>
+      <c r="N71" s="60"/>
+      <c r="O71" s="60"/>
+      <c r="P71" s="60"/>
+      <c r="Q71" s="60"/>
+      <c r="R71" s="60"/>
+      <c r="S71" s="60"/>
+      <c r="T71" s="60"/>
+      <c r="U71" s="60"/>
+      <c r="V71" s="60"/>
+      <c r="W71" s="60"/>
+      <c r="X71" s="60"/>
+      <c r="Y71" s="60"/>
+      <c r="Z71" s="60"/>
+      <c r="AA71" s="60"/>
       <c r="AB71" s="15"/>
       <c r="AC71" s="15"/>
       <c r="AD71" s="15"/>
@@ -4163,27 +4184,27 @@
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
       <c r="O72" s="15"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="49"/>
-      <c r="R72" s="49"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
       <c r="S72" s="15"/>
       <c r="T72" s="15"/>
       <c r="U72" s="15"/>
       <c r="V72" s="15"/>
       <c r="W72" s="15"/>
       <c r="X72" s="15"/>
-      <c r="Y72" s="49"/>
-      <c r="Z72" s="49"/>
-      <c r="AA72" s="49"/>
+      <c r="Y72" s="61"/>
+      <c r="Z72" s="61"/>
+      <c r="AA72" s="61"/>
       <c r="AB72" s="15"/>
       <c r="AC72" s="15"/>
       <c r="AD72" s="15"/>
@@ -4198,27 +4219,27 @@
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
       <c r="O73" s="15"/>
-      <c r="P73" s="49"/>
-      <c r="Q73" s="49"/>
-      <c r="R73" s="49"/>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="61"/>
       <c r="S73" s="15"/>
       <c r="T73" s="15"/>
       <c r="U73" s="15"/>
       <c r="V73" s="15"/>
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
-      <c r="Y73" s="49"/>
-      <c r="Z73" s="49"/>
-      <c r="AA73" s="49"/>
+      <c r="Y73" s="61"/>
+      <c r="Z73" s="61"/>
+      <c r="AA73" s="61"/>
       <c r="AB73" s="15"/>
       <c r="AC73" s="38"/>
       <c r="AD73" s="15"/>
@@ -4233,27 +4254,27 @@
       <c r="D74" s="39"/>
       <c r="E74" s="15"/>
       <c r="F74" s="39"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
       <c r="J74" s="15"/>
       <c r="K74" s="34"/>
       <c r="L74" s="39"/>
       <c r="M74" s="39"/>
       <c r="N74" s="15"/>
       <c r="O74" s="39"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="49"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="61"/>
       <c r="S74" s="15"/>
       <c r="T74" s="34"/>
       <c r="U74" s="39"/>
       <c r="V74" s="39"/>
       <c r="W74" s="15"/>
       <c r="X74" s="39"/>
-      <c r="Y74" s="49"/>
-      <c r="Z74" s="49"/>
-      <c r="AA74" s="49"/>
+      <c r="Y74" s="61"/>
+      <c r="Z74" s="61"/>
+      <c r="AA74" s="61"/>
       <c r="AB74" s="15"/>
       <c r="AC74" s="15"/>
       <c r="AD74" s="15"/>
@@ -4268,27 +4289,27 @@
       <c r="D75" s="39"/>
       <c r="E75" s="15"/>
       <c r="F75" s="39"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
       <c r="J75" s="15"/>
       <c r="K75" s="34"/>
       <c r="L75" s="39"/>
       <c r="M75" s="39"/>
       <c r="N75" s="15"/>
       <c r="O75" s="39"/>
-      <c r="P75" s="49"/>
-      <c r="Q75" s="49"/>
-      <c r="R75" s="49"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="61"/>
       <c r="S75" s="15"/>
       <c r="T75" s="34"/>
       <c r="U75" s="39"/>
       <c r="V75" s="39"/>
       <c r="W75" s="15"/>
       <c r="X75" s="39"/>
-      <c r="Y75" s="49"/>
-      <c r="Z75" s="49"/>
-      <c r="AA75" s="49"/>
+      <c r="Y75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="61"/>
       <c r="AB75" s="15"/>
       <c r="AC75" s="15"/>
       <c r="AD75" s="15"/>
@@ -4303,27 +4324,27 @@
       <c r="D76" s="39"/>
       <c r="E76" s="15"/>
       <c r="F76" s="39"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
       <c r="J76" s="15"/>
       <c r="K76" s="34"/>
       <c r="L76" s="39"/>
       <c r="M76" s="39"/>
       <c r="N76" s="15"/>
       <c r="O76" s="39"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="49"/>
-      <c r="R76" s="49"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="61"/>
       <c r="S76" s="15"/>
       <c r="T76" s="34"/>
       <c r="U76" s="39"/>
       <c r="V76" s="39"/>
       <c r="W76" s="15"/>
       <c r="X76" s="39"/>
-      <c r="Y76" s="49"/>
-      <c r="Z76" s="49"/>
-      <c r="AA76" s="49"/>
+      <c r="Y76" s="61"/>
+      <c r="Z76" s="61"/>
+      <c r="AA76" s="61"/>
       <c r="AB76" s="15"/>
       <c r="AC76" s="15"/>
       <c r="AD76" s="15"/>
@@ -4338,27 +4359,27 @@
       <c r="D77" s="39"/>
       <c r="E77" s="15"/>
       <c r="F77" s="39"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
       <c r="J77" s="15"/>
       <c r="K77" s="34"/>
       <c r="L77" s="39"/>
       <c r="M77" s="39"/>
       <c r="N77" s="15"/>
       <c r="O77" s="39"/>
-      <c r="P77" s="49"/>
-      <c r="Q77" s="49"/>
-      <c r="R77" s="49"/>
+      <c r="P77" s="61"/>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="61"/>
       <c r="S77" s="15"/>
       <c r="T77" s="34"/>
       <c r="U77" s="39"/>
       <c r="V77" s="39"/>
       <c r="W77" s="15"/>
       <c r="X77" s="39"/>
-      <c r="Y77" s="49"/>
-      <c r="Z77" s="49"/>
-      <c r="AA77" s="49"/>
+      <c r="Y77" s="61"/>
+      <c r="Z77" s="61"/>
+      <c r="AA77" s="61"/>
       <c r="AB77" s="15"/>
       <c r="AC77" s="15"/>
       <c r="AD77" s="15"/>
@@ -4373,27 +4394,27 @@
       <c r="D78" s="39"/>
       <c r="E78" s="15"/>
       <c r="F78" s="39"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
       <c r="J78" s="15"/>
       <c r="K78" s="34"/>
       <c r="L78" s="39"/>
       <c r="M78" s="39"/>
       <c r="N78" s="15"/>
       <c r="O78" s="39"/>
-      <c r="P78" s="49"/>
-      <c r="Q78" s="49"/>
-      <c r="R78" s="49"/>
+      <c r="P78" s="61"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
       <c r="S78" s="15"/>
       <c r="T78" s="34"/>
       <c r="U78" s="39"/>
       <c r="V78" s="39"/>
       <c r="W78" s="15"/>
       <c r="X78" s="39"/>
-      <c r="Y78" s="49"/>
-      <c r="Z78" s="49"/>
-      <c r="AA78" s="49"/>
+      <c r="Y78" s="61"/>
+      <c r="Z78" s="61"/>
+      <c r="AA78" s="61"/>
       <c r="AB78" s="15"/>
       <c r="AC78" s="15"/>
       <c r="AD78" s="15"/>
@@ -4408,27 +4429,27 @@
       <c r="D79" s="39"/>
       <c r="E79" s="15"/>
       <c r="F79" s="39"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
       <c r="J79" s="15"/>
       <c r="K79" s="34"/>
       <c r="L79" s="39"/>
       <c r="M79" s="39"/>
       <c r="N79" s="15"/>
       <c r="O79" s="39"/>
-      <c r="P79" s="49"/>
-      <c r="Q79" s="49"/>
-      <c r="R79" s="49"/>
+      <c r="P79" s="61"/>
+      <c r="Q79" s="61"/>
+      <c r="R79" s="61"/>
       <c r="S79" s="15"/>
       <c r="T79" s="34"/>
       <c r="U79" s="39"/>
       <c r="V79" s="39"/>
       <c r="W79" s="15"/>
       <c r="X79" s="39"/>
-      <c r="Y79" s="49"/>
-      <c r="Z79" s="49"/>
-      <c r="AA79" s="49"/>
+      <c r="Y79" s="61"/>
+      <c r="Z79" s="61"/>
+      <c r="AA79" s="61"/>
       <c r="AB79" s="15"/>
       <c r="AC79" s="15"/>
       <c r="AD79" s="15"/>
@@ -4443,27 +4464,27 @@
       <c r="D80" s="39"/>
       <c r="E80" s="15"/>
       <c r="F80" s="39"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
       <c r="J80" s="15"/>
       <c r="K80" s="34"/>
       <c r="L80" s="39"/>
       <c r="M80" s="39"/>
       <c r="N80" s="15"/>
       <c r="O80" s="39"/>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="49"/>
-      <c r="R80" s="49"/>
+      <c r="P80" s="61"/>
+      <c r="Q80" s="61"/>
+      <c r="R80" s="61"/>
       <c r="S80" s="15"/>
       <c r="T80" s="34"/>
       <c r="U80" s="39"/>
       <c r="V80" s="39"/>
       <c r="W80" s="15"/>
       <c r="X80" s="39"/>
-      <c r="Y80" s="49"/>
-      <c r="Z80" s="49"/>
-      <c r="AA80" s="49"/>
+      <c r="Y80" s="61"/>
+      <c r="Z80" s="61"/>
+      <c r="AA80" s="61"/>
       <c r="AB80" s="15"/>
       <c r="AC80" s="15"/>
       <c r="AD80" s="15"/>
@@ -4478,27 +4499,27 @@
       <c r="D81" s="39"/>
       <c r="E81" s="15"/>
       <c r="F81" s="39"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
       <c r="J81" s="15"/>
       <c r="K81" s="34"/>
       <c r="L81" s="39"/>
       <c r="M81" s="39"/>
       <c r="N81" s="15"/>
       <c r="O81" s="39"/>
-      <c r="P81" s="49"/>
-      <c r="Q81" s="49"/>
-      <c r="R81" s="49"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
       <c r="S81" s="15"/>
       <c r="T81" s="34"/>
       <c r="U81" s="39"/>
       <c r="V81" s="39"/>
       <c r="W81" s="15"/>
       <c r="X81" s="39"/>
-      <c r="Y81" s="49"/>
-      <c r="Z81" s="49"/>
-      <c r="AA81" s="49"/>
+      <c r="Y81" s="61"/>
+      <c r="Z81" s="61"/>
+      <c r="AA81" s="61"/>
       <c r="AB81" s="15"/>
       <c r="AC81" s="15"/>
       <c r="AD81" s="15"/>
@@ -4522,18 +4543,18 @@
       <c r="M82" s="39"/>
       <c r="N82" s="39"/>
       <c r="O82" s="39"/>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="49"/>
-      <c r="R82" s="49"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
       <c r="S82" s="15"/>
       <c r="T82" s="34"/>
       <c r="U82" s="39"/>
       <c r="V82" s="39"/>
       <c r="W82" s="15"/>
       <c r="X82" s="39"/>
-      <c r="Y82" s="49"/>
-      <c r="Z82" s="49"/>
-      <c r="AA82" s="49"/>
+      <c r="Y82" s="61"/>
+      <c r="Z82" s="61"/>
+      <c r="AA82" s="61"/>
       <c r="AB82" s="15"/>
       <c r="AC82" s="15"/>
       <c r="AD82" s="15"/>
@@ -4577,33 +4598,33 @@
       <c r="AG83" s="15"/>
     </row>
     <row r="84" spans="1:33" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="48"/>
-      <c r="L84" s="48"/>
-      <c r="M84" s="48"/>
-      <c r="N84" s="48"/>
-      <c r="O84" s="48"/>
-      <c r="P84" s="48"/>
-      <c r="Q84" s="48"/>
-      <c r="R84" s="48"/>
-      <c r="S84" s="48"/>
-      <c r="T84" s="48"/>
-      <c r="U84" s="48"/>
-      <c r="V84" s="48"/>
-      <c r="W84" s="48"/>
-      <c r="X84" s="48"/>
-      <c r="Y84" s="48"/>
-      <c r="Z84" s="48"/>
-      <c r="AA84" s="48"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="60"/>
+      <c r="N84" s="60"/>
+      <c r="O84" s="60"/>
+      <c r="P84" s="60"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="60"/>
+      <c r="T84" s="60"/>
+      <c r="U84" s="60"/>
+      <c r="V84" s="60"/>
+      <c r="W84" s="60"/>
+      <c r="X84" s="60"/>
+      <c r="Y84" s="60"/>
+      <c r="Z84" s="60"/>
+      <c r="AA84" s="60"/>
       <c r="AB84" s="15"/>
       <c r="AC84" s="15"/>
       <c r="AD84" s="15"/>
@@ -4618,27 +4639,27 @@
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
       <c r="L85" s="15"/>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
-      <c r="P85" s="49"/>
-      <c r="Q85" s="49"/>
-      <c r="R85" s="49"/>
+      <c r="P85" s="61"/>
+      <c r="Q85" s="61"/>
+      <c r="R85" s="61"/>
       <c r="S85" s="15"/>
       <c r="T85" s="15"/>
       <c r="U85" s="15"/>
       <c r="V85" s="15"/>
       <c r="W85" s="15"/>
       <c r="X85" s="15"/>
-      <c r="Y85" s="49"/>
-      <c r="Z85" s="49"/>
-      <c r="AA85" s="49"/>
+      <c r="Y85" s="61"/>
+      <c r="Z85" s="61"/>
+      <c r="AA85" s="61"/>
       <c r="AB85" s="15"/>
       <c r="AC85" s="15"/>
       <c r="AD85" s="15"/>
@@ -4653,27 +4674,27 @@
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
-      <c r="P86" s="49"/>
-      <c r="Q86" s="49"/>
-      <c r="R86" s="49"/>
+      <c r="P86" s="61"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="61"/>
       <c r="S86" s="15"/>
       <c r="T86" s="15"/>
       <c r="U86" s="15"/>
       <c r="V86" s="15"/>
       <c r="W86" s="15"/>
       <c r="X86" s="15"/>
-      <c r="Y86" s="49"/>
-      <c r="Z86" s="49"/>
-      <c r="AA86" s="49"/>
+      <c r="Y86" s="61"/>
+      <c r="Z86" s="61"/>
+      <c r="AA86" s="61"/>
       <c r="AB86" s="15"/>
       <c r="AC86" s="38"/>
       <c r="AD86" s="15"/>
@@ -4688,27 +4709,27 @@
       <c r="D87" s="39"/>
       <c r="E87" s="15"/>
       <c r="F87" s="39"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="58"/>
       <c r="J87" s="15"/>
       <c r="K87" s="34"/>
       <c r="L87" s="39"/>
       <c r="M87" s="39"/>
       <c r="N87" s="15"/>
       <c r="O87" s="39"/>
-      <c r="P87" s="47"/>
-      <c r="Q87" s="47"/>
-      <c r="R87" s="47"/>
+      <c r="P87" s="59"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="59"/>
       <c r="S87" s="15"/>
       <c r="T87" s="34"/>
       <c r="U87" s="39"/>
       <c r="V87" s="39"/>
       <c r="W87" s="15"/>
       <c r="X87" s="39"/>
-      <c r="Y87" s="47"/>
-      <c r="Z87" s="47"/>
-      <c r="AA87" s="47"/>
+      <c r="Y87" s="59"/>
+      <c r="Z87" s="59"/>
+      <c r="AA87" s="59"/>
       <c r="AB87" s="15"/>
       <c r="AC87" s="15"/>
       <c r="AD87" s="15"/>
@@ -4723,27 +4744,27 @@
       <c r="D88" s="39"/>
       <c r="E88" s="15"/>
       <c r="F88" s="39"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
       <c r="J88" s="15"/>
       <c r="K88" s="34"/>
       <c r="L88" s="39"/>
       <c r="M88" s="39"/>
       <c r="N88" s="15"/>
       <c r="O88" s="39"/>
-      <c r="P88" s="47"/>
-      <c r="Q88" s="47"/>
-      <c r="R88" s="47"/>
+      <c r="P88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="59"/>
       <c r="S88" s="15"/>
       <c r="T88" s="34"/>
       <c r="U88" s="39"/>
       <c r="V88" s="39"/>
       <c r="W88" s="15"/>
       <c r="X88" s="39"/>
-      <c r="Y88" s="47"/>
-      <c r="Z88" s="47"/>
-      <c r="AA88" s="47"/>
+      <c r="Y88" s="59"/>
+      <c r="Z88" s="59"/>
+      <c r="AA88" s="59"/>
       <c r="AB88" s="15"/>
       <c r="AC88" s="15"/>
       <c r="AD88" s="15"/>
@@ -4758,27 +4779,27 @@
       <c r="D89" s="39"/>
       <c r="E89" s="15"/>
       <c r="F89" s="39"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
       <c r="J89" s="15"/>
       <c r="K89" s="34"/>
       <c r="L89" s="39"/>
       <c r="M89" s="39"/>
       <c r="N89" s="15"/>
       <c r="O89" s="39"/>
-      <c r="P89" s="47"/>
-      <c r="Q89" s="47"/>
-      <c r="R89" s="47"/>
+      <c r="P89" s="59"/>
+      <c r="Q89" s="59"/>
+      <c r="R89" s="59"/>
       <c r="S89" s="15"/>
       <c r="T89" s="34"/>
       <c r="U89" s="39"/>
       <c r="V89" s="39"/>
       <c r="W89" s="15"/>
       <c r="X89" s="39"/>
-      <c r="Y89" s="47"/>
-      <c r="Z89" s="47"/>
-      <c r="AA89" s="47"/>
+      <c r="Y89" s="59"/>
+      <c r="Z89" s="59"/>
+      <c r="AA89" s="59"/>
       <c r="AB89" s="15"/>
       <c r="AC89" s="15"/>
       <c r="AD89" s="15"/>
@@ -4793,27 +4814,27 @@
       <c r="D90" s="39"/>
       <c r="E90" s="15"/>
       <c r="F90" s="39"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="46"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="58"/>
       <c r="J90" s="15"/>
       <c r="K90" s="34"/>
       <c r="L90" s="39"/>
       <c r="M90" s="39"/>
       <c r="N90" s="15"/>
       <c r="O90" s="39"/>
-      <c r="P90" s="47"/>
-      <c r="Q90" s="47"/>
-      <c r="R90" s="47"/>
+      <c r="P90" s="59"/>
+      <c r="Q90" s="59"/>
+      <c r="R90" s="59"/>
       <c r="S90" s="15"/>
       <c r="T90" s="34"/>
       <c r="U90" s="39"/>
       <c r="V90" s="39"/>
       <c r="W90" s="15"/>
       <c r="X90" s="39"/>
-      <c r="Y90" s="47"/>
-      <c r="Z90" s="47"/>
-      <c r="AA90" s="47"/>
+      <c r="Y90" s="59"/>
+      <c r="Z90" s="59"/>
+      <c r="AA90" s="59"/>
       <c r="AB90" s="15"/>
       <c r="AC90" s="15"/>
       <c r="AD90" s="15"/>
@@ -4828,27 +4849,27 @@
       <c r="D91" s="39"/>
       <c r="E91" s="15"/>
       <c r="F91" s="39"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
       <c r="J91" s="15"/>
       <c r="K91" s="34"/>
       <c r="L91" s="39"/>
       <c r="M91" s="39"/>
       <c r="N91" s="15"/>
       <c r="O91" s="39"/>
-      <c r="P91" s="47"/>
-      <c r="Q91" s="47"/>
-      <c r="R91" s="47"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="59"/>
+      <c r="R91" s="59"/>
       <c r="S91" s="15"/>
       <c r="T91" s="34"/>
       <c r="U91" s="39"/>
       <c r="V91" s="39"/>
       <c r="W91" s="15"/>
       <c r="X91" s="39"/>
-      <c r="Y91" s="47"/>
-      <c r="Z91" s="47"/>
-      <c r="AA91" s="47"/>
+      <c r="Y91" s="59"/>
+      <c r="Z91" s="59"/>
+      <c r="AA91" s="59"/>
       <c r="AB91" s="15"/>
       <c r="AC91" s="15"/>
       <c r="AD91" s="15"/>
@@ -4863,27 +4884,27 @@
       <c r="D92" s="39"/>
       <c r="E92" s="15"/>
       <c r="F92" s="39"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
       <c r="J92" s="15"/>
       <c r="K92" s="34"/>
       <c r="L92" s="39"/>
       <c r="M92" s="39"/>
       <c r="N92" s="15"/>
       <c r="O92" s="39"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="59"/>
+      <c r="R92" s="59"/>
       <c r="S92" s="15"/>
       <c r="T92" s="34"/>
       <c r="U92" s="39"/>
       <c r="V92" s="39"/>
       <c r="W92" s="15"/>
       <c r="X92" s="39"/>
-      <c r="Y92" s="47"/>
-      <c r="Z92" s="47"/>
-      <c r="AA92" s="47"/>
+      <c r="Y92" s="59"/>
+      <c r="Z92" s="59"/>
+      <c r="AA92" s="59"/>
       <c r="AB92" s="15"/>
       <c r="AC92" s="15"/>
       <c r="AD92" s="15"/>
@@ -4898,27 +4919,27 @@
       <c r="D93" s="39"/>
       <c r="E93" s="15"/>
       <c r="F93" s="39"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="59"/>
       <c r="J93" s="15"/>
       <c r="K93" s="34"/>
       <c r="L93" s="39"/>
       <c r="M93" s="39"/>
       <c r="N93" s="15"/>
       <c r="O93" s="39"/>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="47"/>
+      <c r="P93" s="59"/>
+      <c r="Q93" s="59"/>
+      <c r="R93" s="59"/>
       <c r="S93" s="15"/>
       <c r="T93" s="34"/>
       <c r="U93" s="39"/>
       <c r="V93" s="39"/>
       <c r="W93" s="15"/>
       <c r="X93" s="39"/>
-      <c r="Y93" s="47"/>
-      <c r="Z93" s="47"/>
-      <c r="AA93" s="47"/>
+      <c r="Y93" s="59"/>
+      <c r="Z93" s="59"/>
+      <c r="AA93" s="59"/>
       <c r="AB93" s="15"/>
       <c r="AC93" s="15"/>
       <c r="AD93" s="15"/>
@@ -4933,27 +4954,27 @@
       <c r="D94" s="39"/>
       <c r="E94" s="15"/>
       <c r="F94" s="39"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="59"/>
       <c r="J94" s="15"/>
       <c r="K94" s="34"/>
       <c r="L94" s="39"/>
       <c r="M94" s="39"/>
       <c r="N94" s="15"/>
       <c r="O94" s="39"/>
-      <c r="P94" s="47"/>
-      <c r="Q94" s="47"/>
-      <c r="R94" s="47"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="59"/>
+      <c r="R94" s="59"/>
       <c r="S94" s="15"/>
       <c r="T94" s="34"/>
       <c r="U94" s="39"/>
       <c r="V94" s="39"/>
       <c r="W94" s="15"/>
       <c r="X94" s="39"/>
-      <c r="Y94" s="47"/>
-      <c r="Z94" s="47"/>
-      <c r="AA94" s="47"/>
+      <c r="Y94" s="59"/>
+      <c r="Z94" s="59"/>
+      <c r="AA94" s="59"/>
       <c r="AB94" s="15"/>
       <c r="AC94" s="15"/>
       <c r="AD94" s="15"/>
@@ -4977,18 +4998,18 @@
       <c r="M95" s="39"/>
       <c r="N95" s="39"/>
       <c r="O95" s="39"/>
-      <c r="P95" s="47"/>
-      <c r="Q95" s="47"/>
-      <c r="R95" s="47"/>
+      <c r="P95" s="59"/>
+      <c r="Q95" s="59"/>
+      <c r="R95" s="59"/>
       <c r="S95" s="15"/>
       <c r="T95" s="34"/>
       <c r="U95" s="39"/>
       <c r="V95" s="39"/>
       <c r="W95" s="39"/>
       <c r="X95" s="39"/>
-      <c r="Y95" s="47"/>
-      <c r="Z95" s="47"/>
-      <c r="AA95" s="47"/>
+      <c r="Y95" s="59"/>
+      <c r="Z95" s="59"/>
+      <c r="AA95" s="59"/>
       <c r="AB95" s="15"/>
       <c r="AC95" s="15"/>
       <c r="AD95" s="15"/>
@@ -5067,33 +5088,33 @@
       <c r="AG97" s="15"/>
     </row>
     <row r="98" spans="1:33" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="48"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="48"/>
-      <c r="K98" s="48"/>
-      <c r="L98" s="48"/>
-      <c r="M98" s="48"/>
-      <c r="N98" s="48"/>
-      <c r="O98" s="48"/>
-      <c r="P98" s="48"/>
-      <c r="Q98" s="48"/>
-      <c r="R98" s="48"/>
-      <c r="S98" s="48"/>
-      <c r="T98" s="48"/>
-      <c r="U98" s="48"/>
-      <c r="V98" s="48"/>
-      <c r="W98" s="48"/>
-      <c r="X98" s="48"/>
-      <c r="Y98" s="48"/>
-      <c r="Z98" s="48"/>
-      <c r="AA98" s="48"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="60"/>
+      <c r="J98" s="60"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="60"/>
+      <c r="N98" s="60"/>
+      <c r="O98" s="60"/>
+      <c r="P98" s="60"/>
+      <c r="Q98" s="60"/>
+      <c r="R98" s="60"/>
+      <c r="S98" s="60"/>
+      <c r="T98" s="60"/>
+      <c r="U98" s="60"/>
+      <c r="V98" s="60"/>
+      <c r="W98" s="60"/>
+      <c r="X98" s="60"/>
+      <c r="Y98" s="60"/>
+      <c r="Z98" s="60"/>
+      <c r="AA98" s="60"/>
       <c r="AB98" s="15"/>
       <c r="AC98" s="15"/>
       <c r="AD98" s="15"/>
@@ -5108,27 +5129,27 @@
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="61"/>
+      <c r="I99" s="61"/>
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
-      <c r="P99" s="49"/>
-      <c r="Q99" s="49"/>
-      <c r="R99" s="49"/>
+      <c r="P99" s="61"/>
+      <c r="Q99" s="61"/>
+      <c r="R99" s="61"/>
       <c r="S99" s="15"/>
       <c r="T99" s="15"/>
       <c r="U99" s="15"/>
       <c r="V99" s="15"/>
       <c r="W99" s="15"/>
       <c r="X99" s="15"/>
-      <c r="Y99" s="49"/>
-      <c r="Z99" s="49"/>
-      <c r="AA99" s="49"/>
+      <c r="Y99" s="61"/>
+      <c r="Z99" s="61"/>
+      <c r="AA99" s="61"/>
       <c r="AB99" s="15"/>
       <c r="AC99" s="15"/>
       <c r="AD99" s="15"/>
@@ -5143,27 +5164,27 @@
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
-      <c r="G100" s="49"/>
-      <c r="H100" s="49"/>
-      <c r="I100" s="49"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
       <c r="L100" s="15"/>
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
       <c r="O100" s="15"/>
-      <c r="P100" s="49"/>
-      <c r="Q100" s="49"/>
-      <c r="R100" s="49"/>
+      <c r="P100" s="61"/>
+      <c r="Q100" s="61"/>
+      <c r="R100" s="61"/>
       <c r="S100" s="15"/>
       <c r="T100" s="15"/>
       <c r="U100" s="15"/>
       <c r="V100" s="15"/>
       <c r="W100" s="15"/>
       <c r="X100" s="15"/>
-      <c r="Y100" s="49"/>
-      <c r="Z100" s="49"/>
-      <c r="AA100" s="49"/>
+      <c r="Y100" s="61"/>
+      <c r="Z100" s="61"/>
+      <c r="AA100" s="61"/>
       <c r="AB100" s="15"/>
       <c r="AC100" s="38"/>
       <c r="AD100" s="15"/>
@@ -5178,27 +5199,27 @@
       <c r="D101" s="39"/>
       <c r="E101" s="15"/>
       <c r="F101" s="39"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
       <c r="J101" s="15"/>
       <c r="K101" s="34"/>
       <c r="L101" s="39"/>
       <c r="M101" s="39"/>
       <c r="N101" s="15"/>
       <c r="O101" s="39"/>
-      <c r="P101" s="47"/>
-      <c r="Q101" s="47"/>
-      <c r="R101" s="47"/>
+      <c r="P101" s="59"/>
+      <c r="Q101" s="59"/>
+      <c r="R101" s="59"/>
       <c r="S101" s="15"/>
       <c r="T101" s="34"/>
       <c r="U101" s="39"/>
       <c r="V101" s="39"/>
       <c r="W101" s="15"/>
       <c r="X101" s="39"/>
-      <c r="Y101" s="47"/>
-      <c r="Z101" s="47"/>
-      <c r="AA101" s="47"/>
+      <c r="Y101" s="59"/>
+      <c r="Z101" s="59"/>
+      <c r="AA101" s="59"/>
       <c r="AB101" s="15"/>
       <c r="AC101" s="38"/>
       <c r="AD101" s="15"/>
@@ -5213,27 +5234,27 @@
       <c r="D102" s="39"/>
       <c r="E102" s="15"/>
       <c r="F102" s="39"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="46"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
       <c r="J102" s="15"/>
       <c r="K102" s="34"/>
       <c r="L102" s="39"/>
       <c r="M102" s="39"/>
       <c r="N102" s="15"/>
       <c r="O102" s="39"/>
-      <c r="P102" s="47"/>
-      <c r="Q102" s="47"/>
-      <c r="R102" s="47"/>
+      <c r="P102" s="59"/>
+      <c r="Q102" s="59"/>
+      <c r="R102" s="59"/>
       <c r="S102" s="15"/>
       <c r="T102" s="34"/>
       <c r="U102" s="39"/>
       <c r="V102" s="39"/>
       <c r="W102" s="15"/>
       <c r="X102" s="39"/>
-      <c r="Y102" s="47"/>
-      <c r="Z102" s="47"/>
-      <c r="AA102" s="47"/>
+      <c r="Y102" s="59"/>
+      <c r="Z102" s="59"/>
+      <c r="AA102" s="59"/>
       <c r="AB102" s="15"/>
       <c r="AC102" s="15"/>
       <c r="AD102" s="15"/>
@@ -5248,27 +5269,27 @@
       <c r="D103" s="39"/>
       <c r="E103" s="15"/>
       <c r="F103" s="39"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
       <c r="J103" s="15"/>
       <c r="K103" s="34"/>
       <c r="L103" s="39"/>
       <c r="M103" s="39"/>
       <c r="N103" s="15"/>
       <c r="O103" s="39"/>
-      <c r="P103" s="47"/>
-      <c r="Q103" s="47"/>
-      <c r="R103" s="47"/>
+      <c r="P103" s="59"/>
+      <c r="Q103" s="59"/>
+      <c r="R103" s="59"/>
       <c r="S103" s="15"/>
       <c r="T103" s="34"/>
       <c r="U103" s="39"/>
       <c r="V103" s="39"/>
       <c r="W103" s="15"/>
       <c r="X103" s="39"/>
-      <c r="Y103" s="47"/>
-      <c r="Z103" s="47"/>
-      <c r="AA103" s="47"/>
+      <c r="Y103" s="59"/>
+      <c r="Z103" s="59"/>
+      <c r="AA103" s="59"/>
       <c r="AB103" s="15"/>
       <c r="AC103" s="15"/>
       <c r="AD103" s="15"/>
@@ -5283,27 +5304,27 @@
       <c r="D104" s="39"/>
       <c r="E104" s="15"/>
       <c r="F104" s="39"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
       <c r="J104" s="15"/>
       <c r="K104" s="34"/>
       <c r="L104" s="39"/>
       <c r="M104" s="39"/>
       <c r="N104" s="15"/>
       <c r="O104" s="39"/>
-      <c r="P104" s="47"/>
-      <c r="Q104" s="47"/>
-      <c r="R104" s="47"/>
+      <c r="P104" s="59"/>
+      <c r="Q104" s="59"/>
+      <c r="R104" s="59"/>
       <c r="S104" s="15"/>
       <c r="T104" s="34"/>
       <c r="U104" s="39"/>
       <c r="V104" s="39"/>
       <c r="W104" s="15"/>
       <c r="X104" s="39"/>
-      <c r="Y104" s="47"/>
-      <c r="Z104" s="47"/>
-      <c r="AA104" s="47"/>
+      <c r="Y104" s="59"/>
+      <c r="Z104" s="59"/>
+      <c r="AA104" s="59"/>
       <c r="AB104" s="15"/>
       <c r="AC104" s="15"/>
       <c r="AD104" s="15"/>
@@ -5318,27 +5339,27 @@
       <c r="D105" s="39"/>
       <c r="E105" s="15"/>
       <c r="F105" s="39"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="46"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="58"/>
       <c r="J105" s="15"/>
       <c r="K105" s="34"/>
       <c r="L105" s="39"/>
       <c r="M105" s="39"/>
       <c r="N105" s="15"/>
       <c r="O105" s="39"/>
-      <c r="P105" s="47"/>
-      <c r="Q105" s="47"/>
-      <c r="R105" s="47"/>
+      <c r="P105" s="59"/>
+      <c r="Q105" s="59"/>
+      <c r="R105" s="59"/>
       <c r="S105" s="15"/>
       <c r="T105" s="34"/>
       <c r="U105" s="39"/>
       <c r="V105" s="39"/>
       <c r="W105" s="15"/>
       <c r="X105" s="39"/>
-      <c r="Y105" s="47"/>
-      <c r="Z105" s="47"/>
-      <c r="AA105" s="47"/>
+      <c r="Y105" s="59"/>
+      <c r="Z105" s="59"/>
+      <c r="AA105" s="59"/>
       <c r="AB105" s="15"/>
       <c r="AC105" s="15"/>
       <c r="AD105" s="15"/>
@@ -5353,27 +5374,27 @@
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
       <c r="F106" s="39"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="46"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="58"/>
       <c r="J106" s="15"/>
       <c r="K106" s="34"/>
       <c r="L106" s="39"/>
       <c r="M106" s="39"/>
       <c r="N106" s="15"/>
       <c r="O106" s="39"/>
-      <c r="P106" s="47"/>
-      <c r="Q106" s="47"/>
-      <c r="R106" s="47"/>
+      <c r="P106" s="59"/>
+      <c r="Q106" s="59"/>
+      <c r="R106" s="59"/>
       <c r="S106" s="15"/>
       <c r="T106" s="34"/>
       <c r="U106" s="39"/>
       <c r="V106" s="39"/>
       <c r="W106" s="15"/>
       <c r="X106" s="39"/>
-      <c r="Y106" s="47"/>
-      <c r="Z106" s="47"/>
-      <c r="AA106" s="47"/>
+      <c r="Y106" s="59"/>
+      <c r="Z106" s="59"/>
+      <c r="AA106" s="59"/>
       <c r="AB106" s="15"/>
       <c r="AC106" s="15"/>
       <c r="AD106" s="15"/>
@@ -5388,27 +5409,27 @@
       <c r="D107" s="39"/>
       <c r="E107" s="15"/>
       <c r="F107" s="39"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58"/>
       <c r="J107" s="15"/>
       <c r="K107" s="34"/>
       <c r="L107" s="39"/>
       <c r="M107" s="39"/>
       <c r="N107" s="15"/>
       <c r="O107" s="39"/>
-      <c r="P107" s="47"/>
-      <c r="Q107" s="47"/>
-      <c r="R107" s="47"/>
+      <c r="P107" s="59"/>
+      <c r="Q107" s="59"/>
+      <c r="R107" s="59"/>
       <c r="S107" s="15"/>
       <c r="T107" s="34"/>
       <c r="U107" s="39"/>
       <c r="V107" s="39"/>
       <c r="W107" s="15"/>
       <c r="X107" s="39"/>
-      <c r="Y107" s="47"/>
-      <c r="Z107" s="47"/>
-      <c r="AA107" s="47"/>
+      <c r="Y107" s="59"/>
+      <c r="Z107" s="59"/>
+      <c r="AA107" s="59"/>
       <c r="AB107" s="15"/>
       <c r="AC107" s="15"/>
       <c r="AD107" s="15"/>
@@ -5423,27 +5444,27 @@
       <c r="D108" s="39"/>
       <c r="E108" s="15"/>
       <c r="F108" s="39"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58"/>
       <c r="J108" s="15"/>
       <c r="K108" s="34"/>
       <c r="L108" s="39"/>
       <c r="M108" s="39"/>
       <c r="N108" s="15"/>
       <c r="O108" s="39"/>
-      <c r="P108" s="47"/>
-      <c r="Q108" s="47"/>
-      <c r="R108" s="47"/>
+      <c r="P108" s="59"/>
+      <c r="Q108" s="59"/>
+      <c r="R108" s="59"/>
       <c r="S108" s="15"/>
       <c r="T108" s="34"/>
       <c r="U108" s="39"/>
       <c r="V108" s="39"/>
       <c r="W108" s="15"/>
       <c r="X108" s="39"/>
-      <c r="Y108" s="47"/>
-      <c r="Z108" s="47"/>
-      <c r="AA108" s="47"/>
+      <c r="Y108" s="59"/>
+      <c r="Z108" s="59"/>
+      <c r="AA108" s="59"/>
       <c r="AB108" s="15"/>
       <c r="AC108" s="15"/>
       <c r="AD108" s="15"/>
@@ -5458,27 +5479,27 @@
       <c r="D109" s="39"/>
       <c r="E109" s="15"/>
       <c r="F109" s="39"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="59"/>
       <c r="J109" s="15"/>
       <c r="K109" s="34"/>
       <c r="L109" s="39"/>
       <c r="M109" s="39"/>
       <c r="N109" s="15"/>
       <c r="O109" s="39"/>
-      <c r="P109" s="47"/>
-      <c r="Q109" s="47"/>
-      <c r="R109" s="47"/>
+      <c r="P109" s="59"/>
+      <c r="Q109" s="59"/>
+      <c r="R109" s="59"/>
       <c r="S109" s="15"/>
       <c r="T109" s="34"/>
       <c r="U109" s="39"/>
       <c r="V109" s="39"/>
       <c r="W109" s="15"/>
       <c r="X109" s="39"/>
-      <c r="Y109" s="47"/>
-      <c r="Z109" s="47"/>
-      <c r="AA109" s="47"/>
+      <c r="Y109" s="59"/>
+      <c r="Z109" s="59"/>
+      <c r="AA109" s="59"/>
       <c r="AB109" s="15"/>
       <c r="AC109" s="15"/>
       <c r="AD109" s="15"/>
@@ -5493,27 +5514,27 @@
       <c r="D110" s="39"/>
       <c r="E110" s="15"/>
       <c r="F110" s="39"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="47"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="59"/>
+      <c r="I110" s="59"/>
       <c r="J110" s="15"/>
       <c r="K110" s="34"/>
       <c r="L110" s="39"/>
       <c r="M110" s="39"/>
       <c r="N110" s="15"/>
       <c r="O110" s="39"/>
-      <c r="P110" s="47"/>
-      <c r="Q110" s="47"/>
-      <c r="R110" s="47"/>
+      <c r="P110" s="59"/>
+      <c r="Q110" s="59"/>
+      <c r="R110" s="59"/>
       <c r="S110" s="15"/>
       <c r="T110" s="34"/>
       <c r="U110" s="39"/>
       <c r="V110" s="39"/>
       <c r="W110" s="15"/>
       <c r="X110" s="39"/>
-      <c r="Y110" s="47"/>
-      <c r="Z110" s="47"/>
-      <c r="AA110" s="47"/>
+      <c r="Y110" s="59"/>
+      <c r="Z110" s="59"/>
+      <c r="AA110" s="59"/>
       <c r="AB110" s="15"/>
       <c r="AC110" s="15"/>
       <c r="AD110" s="15"/>
@@ -5528,27 +5549,27 @@
       <c r="D111" s="39"/>
       <c r="E111" s="15"/>
       <c r="F111" s="39"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47"/>
-      <c r="I111" s="47"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="59"/>
       <c r="J111" s="15"/>
       <c r="K111" s="34"/>
       <c r="L111" s="39"/>
       <c r="M111" s="39"/>
       <c r="N111" s="15"/>
       <c r="O111" s="39"/>
-      <c r="P111" s="47"/>
-      <c r="Q111" s="47"/>
-      <c r="R111" s="47"/>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="59"/>
+      <c r="R111" s="59"/>
       <c r="S111" s="15"/>
       <c r="T111" s="44"/>
       <c r="U111" s="39"/>
       <c r="V111" s="39"/>
       <c r="W111" s="15"/>
       <c r="X111" s="39"/>
-      <c r="Y111" s="47"/>
-      <c r="Z111" s="47"/>
-      <c r="AA111" s="47"/>
+      <c r="Y111" s="59"/>
+      <c r="Z111" s="59"/>
+      <c r="AA111" s="59"/>
       <c r="AB111" s="15"/>
       <c r="AC111" s="15"/>
       <c r="AD111" s="15"/>
@@ -5563,27 +5584,27 @@
       <c r="D112" s="39"/>
       <c r="E112" s="15"/>
       <c r="F112" s="39"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="47"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="59"/>
       <c r="J112" s="15"/>
       <c r="K112" s="34"/>
       <c r="L112" s="39"/>
       <c r="M112" s="39"/>
       <c r="N112" s="15"/>
       <c r="O112" s="39"/>
-      <c r="P112" s="47"/>
-      <c r="Q112" s="47"/>
-      <c r="R112" s="47"/>
+      <c r="P112" s="59"/>
+      <c r="Q112" s="59"/>
+      <c r="R112" s="59"/>
       <c r="S112" s="15"/>
       <c r="T112" s="34"/>
       <c r="U112" s="39"/>
       <c r="V112" s="39"/>
       <c r="W112" s="15"/>
       <c r="X112" s="39"/>
-      <c r="Y112" s="47"/>
-      <c r="Z112" s="47"/>
-      <c r="AA112" s="47"/>
+      <c r="Y112" s="59"/>
+      <c r="Z112" s="59"/>
+      <c r="AA112" s="59"/>
       <c r="AB112" s="15"/>
       <c r="AC112" s="15"/>
       <c r="AD112" s="15"/>
@@ -5598,27 +5619,27 @@
       <c r="D113" s="39"/>
       <c r="E113" s="15"/>
       <c r="F113" s="39"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="47"/>
-      <c r="I113" s="47"/>
+      <c r="G113" s="59"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="59"/>
       <c r="J113" s="15"/>
       <c r="K113" s="34"/>
       <c r="L113" s="39"/>
       <c r="M113" s="39"/>
       <c r="N113" s="39"/>
       <c r="O113" s="39"/>
-      <c r="P113" s="47"/>
-      <c r="Q113" s="47"/>
-      <c r="R113" s="47"/>
+      <c r="P113" s="59"/>
+      <c r="Q113" s="59"/>
+      <c r="R113" s="59"/>
       <c r="S113" s="15"/>
       <c r="T113" s="34"/>
       <c r="U113" s="39"/>
       <c r="V113" s="39"/>
       <c r="W113" s="39"/>
       <c r="X113" s="39"/>
-      <c r="Y113" s="47"/>
-      <c r="Z113" s="47"/>
-      <c r="AA113" s="47"/>
+      <c r="Y113" s="59"/>
+      <c r="Z113" s="59"/>
+      <c r="AA113" s="59"/>
       <c r="AB113" s="15"/>
       <c r="AC113" s="15"/>
       <c r="AD113" s="15"/>
@@ -5633,9 +5654,9 @@
       <c r="D114" s="39"/>
       <c r="E114" s="15"/>
       <c r="F114" s="39"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="47"/>
-      <c r="I114" s="47"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="59"/>
+      <c r="I114" s="59"/>
       <c r="J114" s="15"/>
       <c r="K114" s="40"/>
       <c r="L114" s="15"/>
@@ -5662,33 +5683,33 @@
       <c r="AG114" s="15"/>
     </row>
     <row r="115" spans="1:33" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="48"/>
-      <c r="G115" s="48"/>
-      <c r="H115" s="48"/>
-      <c r="I115" s="48"/>
-      <c r="J115" s="48"/>
-      <c r="K115" s="48"/>
-      <c r="L115" s="48"/>
-      <c r="M115" s="48"/>
-      <c r="N115" s="48"/>
-      <c r="O115" s="48"/>
-      <c r="P115" s="48"/>
-      <c r="Q115" s="48"/>
-      <c r="R115" s="48"/>
-      <c r="S115" s="48"/>
-      <c r="T115" s="48"/>
-      <c r="U115" s="48"/>
-      <c r="V115" s="48"/>
-      <c r="W115" s="48"/>
-      <c r="X115" s="48"/>
-      <c r="Y115" s="48"/>
-      <c r="Z115" s="48"/>
-      <c r="AA115" s="48"/>
+      <c r="A115" s="60"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="60"/>
+      <c r="I115" s="60"/>
+      <c r="J115" s="60"/>
+      <c r="K115" s="60"/>
+      <c r="L115" s="60"/>
+      <c r="M115" s="60"/>
+      <c r="N115" s="60"/>
+      <c r="O115" s="60"/>
+      <c r="P115" s="60"/>
+      <c r="Q115" s="60"/>
+      <c r="R115" s="60"/>
+      <c r="S115" s="60"/>
+      <c r="T115" s="60"/>
+      <c r="U115" s="60"/>
+      <c r="V115" s="60"/>
+      <c r="W115" s="60"/>
+      <c r="X115" s="60"/>
+      <c r="Y115" s="60"/>
+      <c r="Z115" s="60"/>
+      <c r="AA115" s="60"/>
       <c r="AB115" s="15"/>
       <c r="AC115" s="15"/>
       <c r="AD115" s="15"/>
@@ -5703,27 +5724,27 @@
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
-      <c r="G116" s="49"/>
-      <c r="H116" s="49"/>
-      <c r="I116" s="49"/>
+      <c r="G116" s="61"/>
+      <c r="H116" s="61"/>
+      <c r="I116" s="61"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
       <c r="L116" s="15"/>
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
       <c r="O116" s="15"/>
-      <c r="P116" s="49"/>
-      <c r="Q116" s="49"/>
-      <c r="R116" s="49"/>
+      <c r="P116" s="61"/>
+      <c r="Q116" s="61"/>
+      <c r="R116" s="61"/>
       <c r="S116" s="15"/>
       <c r="T116" s="15"/>
       <c r="U116" s="15"/>
       <c r="V116" s="15"/>
       <c r="W116" s="15"/>
       <c r="X116" s="15"/>
-      <c r="Y116" s="49"/>
-      <c r="Z116" s="49"/>
-      <c r="AA116" s="49"/>
+      <c r="Y116" s="61"/>
+      <c r="Z116" s="61"/>
+      <c r="AA116" s="61"/>
       <c r="AB116" s="15"/>
       <c r="AC116" s="15"/>
       <c r="AD116" s="15"/>
@@ -5738,27 +5759,27 @@
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="61"/>
+      <c r="I117" s="61"/>
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
       <c r="L117" s="15"/>
       <c r="M117" s="15"/>
       <c r="N117" s="15"/>
       <c r="O117" s="15"/>
-      <c r="P117" s="49"/>
-      <c r="Q117" s="49"/>
-      <c r="R117" s="49"/>
+      <c r="P117" s="61"/>
+      <c r="Q117" s="61"/>
+      <c r="R117" s="61"/>
       <c r="S117" s="15"/>
       <c r="T117" s="15"/>
       <c r="U117" s="15"/>
       <c r="V117" s="15"/>
       <c r="W117" s="15"/>
       <c r="X117" s="15"/>
-      <c r="Y117" s="49"/>
-      <c r="Z117" s="49"/>
-      <c r="AA117" s="49"/>
+      <c r="Y117" s="61"/>
+      <c r="Z117" s="61"/>
+      <c r="AA117" s="61"/>
       <c r="AB117" s="15"/>
       <c r="AC117" s="38"/>
       <c r="AD117" s="15"/>
@@ -5773,27 +5794,27 @@
       <c r="D118" s="39"/>
       <c r="E118" s="15"/>
       <c r="F118" s="39"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="46"/>
-      <c r="I118" s="46"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="58"/>
       <c r="J118" s="15"/>
       <c r="K118" s="34"/>
       <c r="L118" s="39"/>
       <c r="M118" s="39"/>
       <c r="N118" s="15"/>
       <c r="O118" s="39"/>
-      <c r="P118" s="46"/>
-      <c r="Q118" s="46"/>
-      <c r="R118" s="46"/>
+      <c r="P118" s="58"/>
+      <c r="Q118" s="58"/>
+      <c r="R118" s="58"/>
       <c r="S118" s="15"/>
       <c r="T118" s="34"/>
       <c r="U118" s="39"/>
       <c r="V118" s="39"/>
       <c r="W118" s="15"/>
       <c r="X118" s="39"/>
-      <c r="Y118" s="46"/>
-      <c r="Z118" s="46"/>
-      <c r="AA118" s="46"/>
+      <c r="Y118" s="58"/>
+      <c r="Z118" s="58"/>
+      <c r="AA118" s="58"/>
       <c r="AB118" s="15"/>
       <c r="AC118" s="38"/>
       <c r="AD118" s="15"/>
@@ -5808,27 +5829,27 @@
       <c r="D119" s="39"/>
       <c r="E119" s="15"/>
       <c r="F119" s="39"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="46"/>
+      <c r="G119" s="58"/>
+      <c r="H119" s="58"/>
+      <c r="I119" s="58"/>
       <c r="J119" s="15"/>
       <c r="K119" s="34"/>
       <c r="L119" s="39"/>
       <c r="M119" s="39"/>
       <c r="N119" s="15"/>
       <c r="O119" s="39"/>
-      <c r="P119" s="46"/>
-      <c r="Q119" s="46"/>
-      <c r="R119" s="46"/>
+      <c r="P119" s="58"/>
+      <c r="Q119" s="58"/>
+      <c r="R119" s="58"/>
       <c r="S119" s="15"/>
       <c r="T119" s="34"/>
       <c r="U119" s="39"/>
       <c r="V119" s="39"/>
       <c r="W119" s="15"/>
       <c r="X119" s="39"/>
-      <c r="Y119" s="46"/>
-      <c r="Z119" s="46"/>
-      <c r="AA119" s="46"/>
+      <c r="Y119" s="58"/>
+      <c r="Z119" s="58"/>
+      <c r="AA119" s="58"/>
       <c r="AB119" s="15"/>
       <c r="AC119" s="15"/>
       <c r="AD119" s="15"/>
@@ -5843,27 +5864,27 @@
       <c r="D120" s="39"/>
       <c r="E120" s="15"/>
       <c r="F120" s="39"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="46"/>
+      <c r="G120" s="58"/>
+      <c r="H120" s="58"/>
+      <c r="I120" s="58"/>
       <c r="J120" s="15"/>
       <c r="K120" s="34"/>
       <c r="L120" s="39"/>
       <c r="M120" s="39"/>
       <c r="N120" s="15"/>
       <c r="O120" s="39"/>
-      <c r="P120" s="46"/>
-      <c r="Q120" s="46"/>
-      <c r="R120" s="46"/>
+      <c r="P120" s="58"/>
+      <c r="Q120" s="58"/>
+      <c r="R120" s="58"/>
       <c r="S120" s="15"/>
       <c r="T120" s="34"/>
       <c r="U120" s="39"/>
       <c r="V120" s="39"/>
       <c r="W120" s="15"/>
       <c r="X120" s="39"/>
-      <c r="Y120" s="46"/>
-      <c r="Z120" s="46"/>
-      <c r="AA120" s="46"/>
+      <c r="Y120" s="58"/>
+      <c r="Z120" s="58"/>
+      <c r="AA120" s="58"/>
       <c r="AB120" s="15"/>
       <c r="AC120" s="15"/>
       <c r="AD120" s="15"/>
@@ -5878,27 +5899,27 @@
       <c r="D121" s="39"/>
       <c r="E121" s="15"/>
       <c r="F121" s="39"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="46"/>
+      <c r="G121" s="58"/>
+      <c r="H121" s="58"/>
+      <c r="I121" s="58"/>
       <c r="J121" s="15"/>
       <c r="K121" s="34"/>
       <c r="L121" s="39"/>
       <c r="M121" s="39"/>
       <c r="N121" s="15"/>
       <c r="O121" s="39"/>
-      <c r="P121" s="46"/>
-      <c r="Q121" s="46"/>
-      <c r="R121" s="46"/>
+      <c r="P121" s="58"/>
+      <c r="Q121" s="58"/>
+      <c r="R121" s="58"/>
       <c r="S121" s="15"/>
       <c r="T121" s="34"/>
       <c r="U121" s="39"/>
       <c r="V121" s="39"/>
       <c r="W121" s="15"/>
       <c r="X121" s="39"/>
-      <c r="Y121" s="46"/>
-      <c r="Z121" s="46"/>
-      <c r="AA121" s="46"/>
+      <c r="Y121" s="58"/>
+      <c r="Z121" s="58"/>
+      <c r="AA121" s="58"/>
       <c r="AB121" s="15"/>
       <c r="AC121" s="15"/>
       <c r="AD121" s="15"/>
@@ -5913,27 +5934,27 @@
       <c r="D122" s="39"/>
       <c r="E122" s="15"/>
       <c r="F122" s="39"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="46"/>
-      <c r="I122" s="46"/>
+      <c r="G122" s="58"/>
+      <c r="H122" s="58"/>
+      <c r="I122" s="58"/>
       <c r="J122" s="15"/>
       <c r="K122" s="34"/>
       <c r="L122" s="39"/>
       <c r="M122" s="39"/>
       <c r="N122" s="15"/>
       <c r="O122" s="39"/>
-      <c r="P122" s="46"/>
-      <c r="Q122" s="46"/>
-      <c r="R122" s="46"/>
+      <c r="P122" s="58"/>
+      <c r="Q122" s="58"/>
+      <c r="R122" s="58"/>
       <c r="S122" s="15"/>
       <c r="T122" s="34"/>
       <c r="U122" s="39"/>
       <c r="V122" s="39"/>
       <c r="W122" s="15"/>
       <c r="X122" s="39"/>
-      <c r="Y122" s="46"/>
-      <c r="Z122" s="46"/>
-      <c r="AA122" s="46"/>
+      <c r="Y122" s="58"/>
+      <c r="Z122" s="58"/>
+      <c r="AA122" s="58"/>
       <c r="AB122" s="15"/>
       <c r="AC122" s="15"/>
       <c r="AD122" s="15"/>
@@ -5948,27 +5969,27 @@
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
       <c r="F123" s="39"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
-      <c r="I123" s="46"/>
+      <c r="G123" s="58"/>
+      <c r="H123" s="58"/>
+      <c r="I123" s="58"/>
       <c r="J123" s="15"/>
       <c r="K123" s="34"/>
       <c r="L123" s="39"/>
       <c r="M123" s="39"/>
       <c r="N123" s="15"/>
       <c r="O123" s="39"/>
-      <c r="P123" s="46"/>
-      <c r="Q123" s="46"/>
-      <c r="R123" s="46"/>
+      <c r="P123" s="58"/>
+      <c r="Q123" s="58"/>
+      <c r="R123" s="58"/>
       <c r="S123" s="15"/>
       <c r="T123" s="34"/>
       <c r="U123" s="39"/>
       <c r="V123" s="39"/>
       <c r="W123" s="15"/>
       <c r="X123" s="39"/>
-      <c r="Y123" s="46"/>
-      <c r="Z123" s="46"/>
-      <c r="AA123" s="46"/>
+      <c r="Y123" s="58"/>
+      <c r="Z123" s="58"/>
+      <c r="AA123" s="58"/>
       <c r="AB123" s="15"/>
       <c r="AC123" s="15"/>
       <c r="AD123" s="15"/>
@@ -5983,27 +6004,27 @@
       <c r="D124" s="39"/>
       <c r="E124" s="15"/>
       <c r="F124" s="39"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="46"/>
+      <c r="G124" s="58"/>
+      <c r="H124" s="58"/>
+      <c r="I124" s="58"/>
       <c r="J124" s="15"/>
       <c r="K124" s="34"/>
       <c r="L124" s="39"/>
       <c r="M124" s="39"/>
       <c r="N124" s="15"/>
       <c r="O124" s="39"/>
-      <c r="P124" s="46"/>
-      <c r="Q124" s="46"/>
-      <c r="R124" s="46"/>
+      <c r="P124" s="58"/>
+      <c r="Q124" s="58"/>
+      <c r="R124" s="58"/>
       <c r="S124" s="15"/>
       <c r="T124" s="34"/>
       <c r="U124" s="39"/>
       <c r="V124" s="39"/>
       <c r="W124" s="15"/>
       <c r="X124" s="39"/>
-      <c r="Y124" s="46"/>
-      <c r="Z124" s="46"/>
-      <c r="AA124" s="46"/>
+      <c r="Y124" s="58"/>
+      <c r="Z124" s="58"/>
+      <c r="AA124" s="58"/>
       <c r="AB124" s="15"/>
       <c r="AC124" s="15"/>
       <c r="AD124" s="15"/>
@@ -6018,27 +6039,27 @@
       <c r="D125" s="39"/>
       <c r="E125" s="15"/>
       <c r="F125" s="39"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="46"/>
+      <c r="G125" s="58"/>
+      <c r="H125" s="58"/>
+      <c r="I125" s="58"/>
       <c r="J125" s="15"/>
       <c r="K125" s="34"/>
       <c r="L125" s="39"/>
       <c r="M125" s="39"/>
       <c r="N125" s="15"/>
       <c r="O125" s="39"/>
-      <c r="P125" s="46"/>
-      <c r="Q125" s="46"/>
-      <c r="R125" s="46"/>
+      <c r="P125" s="58"/>
+      <c r="Q125" s="58"/>
+      <c r="R125" s="58"/>
       <c r="S125" s="15"/>
       <c r="T125" s="34"/>
       <c r="U125" s="39"/>
       <c r="V125" s="39"/>
       <c r="W125" s="15"/>
       <c r="X125" s="39"/>
-      <c r="Y125" s="47"/>
-      <c r="Z125" s="47"/>
-      <c r="AA125" s="47"/>
+      <c r="Y125" s="59"/>
+      <c r="Z125" s="59"/>
+      <c r="AA125" s="59"/>
       <c r="AB125" s="15"/>
       <c r="AC125" s="15"/>
       <c r="AD125" s="15"/>
@@ -6053,27 +6074,27 @@
       <c r="D126" s="39"/>
       <c r="E126" s="15"/>
       <c r="F126" s="39"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
+      <c r="G126" s="58"/>
+      <c r="H126" s="58"/>
+      <c r="I126" s="58"/>
       <c r="J126" s="15"/>
       <c r="K126" s="34"/>
       <c r="L126" s="39"/>
       <c r="M126" s="39"/>
       <c r="N126" s="15"/>
       <c r="O126" s="39"/>
-      <c r="P126" s="46"/>
-      <c r="Q126" s="46"/>
-      <c r="R126" s="46"/>
+      <c r="P126" s="58"/>
+      <c r="Q126" s="58"/>
+      <c r="R126" s="58"/>
       <c r="S126" s="15"/>
       <c r="T126" s="34"/>
       <c r="U126" s="39"/>
       <c r="V126" s="39"/>
       <c r="W126" s="15"/>
       <c r="X126" s="39"/>
-      <c r="Y126" s="47"/>
-      <c r="Z126" s="47"/>
-      <c r="AA126" s="47"/>
+      <c r="Y126" s="59"/>
+      <c r="Z126" s="59"/>
+      <c r="AA126" s="59"/>
       <c r="AB126" s="15"/>
       <c r="AC126" s="15"/>
       <c r="AD126" s="15"/>
@@ -6088,27 +6109,27 @@
       <c r="D127" s="39"/>
       <c r="E127" s="15"/>
       <c r="F127" s="39"/>
-      <c r="G127" s="47"/>
-      <c r="H127" s="47"/>
-      <c r="I127" s="47"/>
+      <c r="G127" s="59"/>
+      <c r="H127" s="59"/>
+      <c r="I127" s="59"/>
       <c r="J127" s="15"/>
       <c r="K127" s="34"/>
       <c r="L127" s="39"/>
       <c r="M127" s="39"/>
       <c r="N127" s="15"/>
       <c r="O127" s="39"/>
-      <c r="P127" s="46"/>
-      <c r="Q127" s="46"/>
-      <c r="R127" s="46"/>
+      <c r="P127" s="58"/>
+      <c r="Q127" s="58"/>
+      <c r="R127" s="58"/>
       <c r="S127" s="15"/>
       <c r="T127" s="34"/>
       <c r="U127" s="39"/>
       <c r="V127" s="39"/>
       <c r="W127" s="15"/>
       <c r="X127" s="39"/>
-      <c r="Y127" s="47"/>
-      <c r="Z127" s="47"/>
-      <c r="AA127" s="47"/>
+      <c r="Y127" s="59"/>
+      <c r="Z127" s="59"/>
+      <c r="AA127" s="59"/>
       <c r="AB127" s="15"/>
       <c r="AC127" s="15"/>
       <c r="AD127" s="15"/>
@@ -6123,27 +6144,27 @@
       <c r="D128" s="39"/>
       <c r="E128" s="15"/>
       <c r="F128" s="39"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
-      <c r="I128" s="47"/>
+      <c r="G128" s="59"/>
+      <c r="H128" s="59"/>
+      <c r="I128" s="59"/>
       <c r="J128" s="15"/>
       <c r="K128" s="34"/>
       <c r="L128" s="39"/>
       <c r="M128" s="39"/>
       <c r="N128" s="15"/>
       <c r="O128" s="39"/>
-      <c r="P128" s="47"/>
-      <c r="Q128" s="47"/>
-      <c r="R128" s="47"/>
+      <c r="P128" s="59"/>
+      <c r="Q128" s="59"/>
+      <c r="R128" s="59"/>
       <c r="S128" s="15"/>
       <c r="T128" s="34"/>
       <c r="U128" s="39"/>
       <c r="V128" s="39"/>
       <c r="W128" s="15"/>
       <c r="X128" s="39"/>
-      <c r="Y128" s="47"/>
-      <c r="Z128" s="47"/>
-      <c r="AA128" s="47"/>
+      <c r="Y128" s="59"/>
+      <c r="Z128" s="59"/>
+      <c r="AA128" s="59"/>
       <c r="AB128" s="15"/>
       <c r="AC128" s="15"/>
       <c r="AD128" s="15"/>
@@ -6158,27 +6179,27 @@
       <c r="D129" s="39"/>
       <c r="E129" s="15"/>
       <c r="F129" s="39"/>
-      <c r="G129" s="47"/>
-      <c r="H129" s="47"/>
-      <c r="I129" s="47"/>
+      <c r="G129" s="59"/>
+      <c r="H129" s="59"/>
+      <c r="I129" s="59"/>
       <c r="J129" s="15"/>
       <c r="K129" s="34"/>
       <c r="L129" s="39"/>
       <c r="M129" s="39"/>
       <c r="N129" s="15"/>
       <c r="O129" s="39"/>
-      <c r="P129" s="47"/>
-      <c r="Q129" s="47"/>
-      <c r="R129" s="47"/>
+      <c r="P129" s="59"/>
+      <c r="Q129" s="59"/>
+      <c r="R129" s="59"/>
       <c r="S129" s="15"/>
       <c r="T129" s="44"/>
       <c r="U129" s="39"/>
       <c r="V129" s="39"/>
       <c r="W129" s="15"/>
       <c r="X129" s="39"/>
-      <c r="Y129" s="47"/>
-      <c r="Z129" s="47"/>
-      <c r="AA129" s="47"/>
+      <c r="Y129" s="59"/>
+      <c r="Z129" s="59"/>
+      <c r="AA129" s="59"/>
       <c r="AB129" s="15"/>
       <c r="AC129" s="15"/>
       <c r="AD129" s="15"/>
@@ -6193,27 +6214,27 @@
       <c r="D130" s="39"/>
       <c r="E130" s="15"/>
       <c r="F130" s="15"/>
-      <c r="G130" s="47"/>
-      <c r="H130" s="47"/>
-      <c r="I130" s="47"/>
+      <c r="G130" s="59"/>
+      <c r="H130" s="59"/>
+      <c r="I130" s="59"/>
       <c r="J130" s="15"/>
       <c r="K130" s="34"/>
       <c r="L130" s="39"/>
       <c r="M130" s="39"/>
       <c r="N130" s="15"/>
       <c r="O130" s="39"/>
-      <c r="P130" s="47"/>
-      <c r="Q130" s="47"/>
-      <c r="R130" s="47"/>
+      <c r="P130" s="59"/>
+      <c r="Q130" s="59"/>
+      <c r="R130" s="59"/>
       <c r="S130" s="15"/>
       <c r="T130" s="34"/>
       <c r="U130" s="39"/>
       <c r="V130" s="39"/>
       <c r="W130" s="15"/>
       <c r="X130" s="15"/>
-      <c r="Y130" s="47"/>
-      <c r="Z130" s="47"/>
-      <c r="AA130" s="47"/>
+      <c r="Y130" s="59"/>
+      <c r="Z130" s="59"/>
+      <c r="AA130" s="59"/>
       <c r="AB130" s="15"/>
       <c r="AC130" s="15"/>
       <c r="AD130" s="15"/>
@@ -6257,33 +6278,33 @@
       <c r="AG131" s="15"/>
     </row>
     <row r="132" spans="1:33" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A132" s="48"/>
-      <c r="B132" s="48"/>
-      <c r="C132" s="48"/>
-      <c r="D132" s="48"/>
-      <c r="E132" s="48"/>
-      <c r="F132" s="48"/>
-      <c r="G132" s="48"/>
-      <c r="H132" s="48"/>
-      <c r="I132" s="48"/>
-      <c r="J132" s="48"/>
-      <c r="K132" s="48"/>
-      <c r="L132" s="48"/>
-      <c r="M132" s="48"/>
-      <c r="N132" s="48"/>
-      <c r="O132" s="48"/>
-      <c r="P132" s="48"/>
-      <c r="Q132" s="48"/>
-      <c r="R132" s="48"/>
-      <c r="S132" s="48"/>
-      <c r="T132" s="48"/>
-      <c r="U132" s="48"/>
-      <c r="V132" s="48"/>
-      <c r="W132" s="48"/>
-      <c r="X132" s="48"/>
-      <c r="Y132" s="48"/>
-      <c r="Z132" s="48"/>
-      <c r="AA132" s="48"/>
+      <c r="A132" s="60"/>
+      <c r="B132" s="60"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="60"/>
+      <c r="F132" s="60"/>
+      <c r="G132" s="60"/>
+      <c r="H132" s="60"/>
+      <c r="I132" s="60"/>
+      <c r="J132" s="60"/>
+      <c r="K132" s="60"/>
+      <c r="L132" s="60"/>
+      <c r="M132" s="60"/>
+      <c r="N132" s="60"/>
+      <c r="O132" s="60"/>
+      <c r="P132" s="60"/>
+      <c r="Q132" s="60"/>
+      <c r="R132" s="60"/>
+      <c r="S132" s="60"/>
+      <c r="T132" s="60"/>
+      <c r="U132" s="60"/>
+      <c r="V132" s="60"/>
+      <c r="W132" s="60"/>
+      <c r="X132" s="60"/>
+      <c r="Y132" s="60"/>
+      <c r="Z132" s="60"/>
+      <c r="AA132" s="60"/>
       <c r="AB132" s="15"/>
       <c r="AC132" s="15"/>
       <c r="AD132" s="15"/>
@@ -6298,27 +6319,27 @@
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
       <c r="F133" s="15"/>
-      <c r="G133" s="49"/>
-      <c r="H133" s="49"/>
-      <c r="I133" s="49"/>
+      <c r="G133" s="61"/>
+      <c r="H133" s="61"/>
+      <c r="I133" s="61"/>
       <c r="J133" s="15"/>
       <c r="K133" s="15"/>
       <c r="L133" s="15"/>
       <c r="M133" s="15"/>
       <c r="N133" s="15"/>
       <c r="O133" s="15"/>
-      <c r="P133" s="49"/>
-      <c r="Q133" s="49"/>
-      <c r="R133" s="49"/>
+      <c r="P133" s="61"/>
+      <c r="Q133" s="61"/>
+      <c r="R133" s="61"/>
       <c r="S133" s="15"/>
       <c r="T133" s="15"/>
       <c r="U133" s="15"/>
       <c r="V133" s="15"/>
       <c r="W133" s="15"/>
       <c r="X133" s="15"/>
-      <c r="Y133" s="49"/>
-      <c r="Z133" s="49"/>
-      <c r="AA133" s="49"/>
+      <c r="Y133" s="61"/>
+      <c r="Z133" s="61"/>
+      <c r="AA133" s="61"/>
       <c r="AB133" s="15"/>
       <c r="AC133" s="15"/>
       <c r="AD133" s="15"/>
@@ -6333,27 +6354,27 @@
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
       <c r="F134" s="15"/>
-      <c r="G134" s="49"/>
-      <c r="H134" s="49"/>
-      <c r="I134" s="49"/>
+      <c r="G134" s="61"/>
+      <c r="H134" s="61"/>
+      <c r="I134" s="61"/>
       <c r="J134" s="15"/>
       <c r="K134" s="15"/>
       <c r="L134" s="15"/>
       <c r="M134" s="15"/>
       <c r="N134" s="15"/>
       <c r="O134" s="15"/>
-      <c r="P134" s="49"/>
-      <c r="Q134" s="49"/>
-      <c r="R134" s="49"/>
+      <c r="P134" s="61"/>
+      <c r="Q134" s="61"/>
+      <c r="R134" s="61"/>
       <c r="S134" s="15"/>
       <c r="T134" s="15"/>
       <c r="U134" s="15"/>
       <c r="V134" s="15"/>
       <c r="W134" s="15"/>
       <c r="X134" s="15"/>
-      <c r="Y134" s="49"/>
-      <c r="Z134" s="49"/>
-      <c r="AA134" s="49"/>
+      <c r="Y134" s="61"/>
+      <c r="Z134" s="61"/>
+      <c r="AA134" s="61"/>
       <c r="AB134" s="15"/>
       <c r="AC134" s="38"/>
       <c r="AD134" s="15"/>
@@ -6368,27 +6389,27 @@
       <c r="D135" s="39"/>
       <c r="E135" s="15"/>
       <c r="F135" s="39"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="46"/>
-      <c r="I135" s="46"/>
+      <c r="G135" s="58"/>
+      <c r="H135" s="58"/>
+      <c r="I135" s="58"/>
       <c r="J135" s="15"/>
       <c r="K135" s="34"/>
       <c r="L135" s="39"/>
       <c r="M135" s="39"/>
       <c r="N135" s="15"/>
       <c r="O135" s="39"/>
-      <c r="P135" s="46"/>
-      <c r="Q135" s="46"/>
-      <c r="R135" s="46"/>
+      <c r="P135" s="58"/>
+      <c r="Q135" s="58"/>
+      <c r="R135" s="58"/>
       <c r="S135" s="15"/>
       <c r="T135" s="34"/>
       <c r="U135" s="39"/>
       <c r="V135" s="39"/>
       <c r="W135" s="15"/>
       <c r="X135" s="39"/>
-      <c r="Y135" s="46"/>
-      <c r="Z135" s="46"/>
-      <c r="AA135" s="46"/>
+      <c r="Y135" s="58"/>
+      <c r="Z135" s="58"/>
+      <c r="AA135" s="58"/>
       <c r="AB135" s="15"/>
       <c r="AC135" s="38"/>
       <c r="AD135" s="15"/>
@@ -6403,27 +6424,27 @@
       <c r="D136" s="39"/>
       <c r="E136" s="15"/>
       <c r="F136" s="39"/>
-      <c r="G136" s="46"/>
-      <c r="H136" s="46"/>
-      <c r="I136" s="46"/>
+      <c r="G136" s="58"/>
+      <c r="H136" s="58"/>
+      <c r="I136" s="58"/>
       <c r="J136" s="15"/>
       <c r="K136" s="34"/>
       <c r="L136" s="39"/>
       <c r="M136" s="39"/>
       <c r="N136" s="15"/>
       <c r="O136" s="39"/>
-      <c r="P136" s="46"/>
-      <c r="Q136" s="46"/>
-      <c r="R136" s="46"/>
+      <c r="P136" s="58"/>
+      <c r="Q136" s="58"/>
+      <c r="R136" s="58"/>
       <c r="S136" s="15"/>
       <c r="T136" s="34"/>
       <c r="U136" s="39"/>
       <c r="V136" s="39"/>
       <c r="W136" s="15"/>
       <c r="X136" s="39"/>
-      <c r="Y136" s="46"/>
-      <c r="Z136" s="46"/>
-      <c r="AA136" s="46"/>
+      <c r="Y136" s="58"/>
+      <c r="Z136" s="58"/>
+      <c r="AA136" s="58"/>
       <c r="AB136" s="15"/>
       <c r="AC136" s="15"/>
       <c r="AD136" s="15"/>
@@ -6438,27 +6459,27 @@
       <c r="D137" s="39"/>
       <c r="E137" s="15"/>
       <c r="F137" s="39"/>
-      <c r="G137" s="46"/>
-      <c r="H137" s="46"/>
-      <c r="I137" s="46"/>
+      <c r="G137" s="58"/>
+      <c r="H137" s="58"/>
+      <c r="I137" s="58"/>
       <c r="J137" s="15"/>
       <c r="K137" s="34"/>
       <c r="L137" s="39"/>
       <c r="M137" s="39"/>
       <c r="N137" s="15"/>
       <c r="O137" s="39"/>
-      <c r="P137" s="46"/>
-      <c r="Q137" s="46"/>
-      <c r="R137" s="46"/>
+      <c r="P137" s="58"/>
+      <c r="Q137" s="58"/>
+      <c r="R137" s="58"/>
       <c r="S137" s="15"/>
       <c r="T137" s="34"/>
       <c r="U137" s="39"/>
       <c r="V137" s="39"/>
       <c r="W137" s="15"/>
       <c r="X137" s="39"/>
-      <c r="Y137" s="46"/>
-      <c r="Z137" s="46"/>
-      <c r="AA137" s="46"/>
+      <c r="Y137" s="58"/>
+      <c r="Z137" s="58"/>
+      <c r="AA137" s="58"/>
       <c r="AB137" s="15"/>
       <c r="AC137" s="15"/>
       <c r="AD137" s="15"/>
@@ -6473,27 +6494,27 @@
       <c r="D138" s="39"/>
       <c r="E138" s="39"/>
       <c r="F138" s="39"/>
-      <c r="G138" s="46"/>
-      <c r="H138" s="46"/>
-      <c r="I138" s="46"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="58"/>
+      <c r="I138" s="58"/>
       <c r="J138" s="15"/>
       <c r="K138" s="34"/>
       <c r="L138" s="39"/>
       <c r="M138" s="39"/>
       <c r="N138" s="39"/>
       <c r="O138" s="39"/>
-      <c r="P138" s="46"/>
-      <c r="Q138" s="46"/>
-      <c r="R138" s="46"/>
+      <c r="P138" s="58"/>
+      <c r="Q138" s="58"/>
+      <c r="R138" s="58"/>
       <c r="S138" s="15"/>
       <c r="T138" s="34"/>
       <c r="U138" s="39"/>
       <c r="V138" s="39"/>
       <c r="W138" s="39"/>
       <c r="X138" s="39"/>
-      <c r="Y138" s="46"/>
-      <c r="Z138" s="46"/>
-      <c r="AA138" s="46"/>
+      <c r="Y138" s="58"/>
+      <c r="Z138" s="58"/>
+      <c r="AA138" s="58"/>
       <c r="AB138" s="15"/>
       <c r="AC138" s="15"/>
       <c r="AD138" s="15"/>
@@ -6508,27 +6529,27 @@
       <c r="D139" s="39"/>
       <c r="E139" s="15"/>
       <c r="F139" s="39"/>
-      <c r="G139" s="46"/>
-      <c r="H139" s="46"/>
-      <c r="I139" s="46"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="58"/>
+      <c r="I139" s="58"/>
       <c r="J139" s="15"/>
       <c r="K139" s="34"/>
       <c r="L139" s="39"/>
       <c r="M139" s="39"/>
       <c r="N139" s="39"/>
       <c r="O139" s="39"/>
-      <c r="P139" s="46"/>
-      <c r="Q139" s="46"/>
-      <c r="R139" s="46"/>
+      <c r="P139" s="58"/>
+      <c r="Q139" s="58"/>
+      <c r="R139" s="58"/>
       <c r="S139" s="15"/>
       <c r="T139" s="34"/>
       <c r="U139" s="39"/>
       <c r="V139" s="39"/>
       <c r="W139" s="15"/>
       <c r="X139" s="39"/>
-      <c r="Y139" s="46"/>
-      <c r="Z139" s="46"/>
-      <c r="AA139" s="46"/>
+      <c r="Y139" s="58"/>
+      <c r="Z139" s="58"/>
+      <c r="AA139" s="58"/>
       <c r="AB139" s="15"/>
       <c r="AC139" s="15"/>
       <c r="AD139" s="15"/>
@@ -6543,27 +6564,27 @@
       <c r="D140" s="39"/>
       <c r="E140" s="15"/>
       <c r="F140" s="39"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="46"/>
-      <c r="I140" s="46"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="58"/>
+      <c r="I140" s="58"/>
       <c r="J140" s="15"/>
       <c r="K140" s="34"/>
       <c r="L140" s="39"/>
       <c r="M140" s="39"/>
       <c r="N140" s="15"/>
       <c r="O140" s="39"/>
-      <c r="P140" s="46"/>
-      <c r="Q140" s="46"/>
-      <c r="R140" s="46"/>
+      <c r="P140" s="58"/>
+      <c r="Q140" s="58"/>
+      <c r="R140" s="58"/>
       <c r="S140" s="15"/>
       <c r="T140" s="34"/>
       <c r="U140" s="39"/>
       <c r="V140" s="39"/>
       <c r="W140" s="15"/>
       <c r="X140" s="39"/>
-      <c r="Y140" s="46"/>
-      <c r="Z140" s="46"/>
-      <c r="AA140" s="46"/>
+      <c r="Y140" s="58"/>
+      <c r="Z140" s="58"/>
+      <c r="AA140" s="58"/>
       <c r="AB140" s="15"/>
       <c r="AC140" s="15"/>
       <c r="AD140" s="15"/>
@@ -6578,27 +6599,27 @@
       <c r="D141" s="39"/>
       <c r="E141" s="15"/>
       <c r="F141" s="39"/>
-      <c r="G141" s="46"/>
-      <c r="H141" s="46"/>
-      <c r="I141" s="46"/>
+      <c r="G141" s="58"/>
+      <c r="H141" s="58"/>
+      <c r="I141" s="58"/>
       <c r="J141" s="15"/>
       <c r="K141" s="34"/>
       <c r="L141" s="39"/>
       <c r="M141" s="39"/>
       <c r="N141" s="15"/>
       <c r="O141" s="39"/>
-      <c r="P141" s="46"/>
-      <c r="Q141" s="46"/>
-      <c r="R141" s="46"/>
+      <c r="P141" s="58"/>
+      <c r="Q141" s="58"/>
+      <c r="R141" s="58"/>
       <c r="S141" s="15"/>
       <c r="T141" s="34"/>
       <c r="U141" s="39"/>
       <c r="V141" s="39"/>
       <c r="W141" s="15"/>
       <c r="X141" s="39"/>
-      <c r="Y141" s="46"/>
-      <c r="Z141" s="46"/>
-      <c r="AA141" s="46"/>
+      <c r="Y141" s="58"/>
+      <c r="Z141" s="58"/>
+      <c r="AA141" s="58"/>
       <c r="AB141" s="15"/>
       <c r="AC141" s="15"/>
       <c r="AD141" s="15"/>
@@ -6613,27 +6634,27 @@
       <c r="D142" s="39"/>
       <c r="E142" s="15"/>
       <c r="F142" s="39"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
+      <c r="G142" s="58"/>
+      <c r="H142" s="58"/>
+      <c r="I142" s="58"/>
       <c r="J142" s="15"/>
       <c r="K142" s="34"/>
       <c r="L142" s="39"/>
       <c r="M142" s="39"/>
       <c r="N142" s="15"/>
       <c r="O142" s="39"/>
-      <c r="P142" s="46"/>
-      <c r="Q142" s="46"/>
-      <c r="R142" s="46"/>
+      <c r="P142" s="58"/>
+      <c r="Q142" s="58"/>
+      <c r="R142" s="58"/>
       <c r="S142" s="15"/>
       <c r="T142" s="34"/>
       <c r="U142" s="39"/>
       <c r="V142" s="39"/>
       <c r="W142" s="15"/>
       <c r="X142" s="39"/>
-      <c r="Y142" s="47"/>
-      <c r="Z142" s="47"/>
-      <c r="AA142" s="47"/>
+      <c r="Y142" s="59"/>
+      <c r="Z142" s="59"/>
+      <c r="AA142" s="59"/>
       <c r="AB142" s="15"/>
       <c r="AC142" s="15"/>
       <c r="AD142" s="15"/>
@@ -6753,27 +6774,27 @@
       <c r="D146" s="39"/>
       <c r="E146" s="15"/>
       <c r="F146" s="39"/>
-      <c r="G146" s="46"/>
-      <c r="H146" s="46"/>
-      <c r="I146" s="46"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="58"/>
+      <c r="I146" s="58"/>
       <c r="J146" s="15"/>
       <c r="K146" s="34"/>
       <c r="L146" s="39"/>
       <c r="M146" s="39"/>
       <c r="N146" s="15"/>
       <c r="O146" s="15"/>
-      <c r="P146" s="46"/>
-      <c r="Q146" s="46"/>
-      <c r="R146" s="46"/>
+      <c r="P146" s="58"/>
+      <c r="Q146" s="58"/>
+      <c r="R146" s="58"/>
       <c r="S146" s="15"/>
       <c r="T146" s="34"/>
       <c r="U146" s="39"/>
       <c r="V146" s="39"/>
       <c r="W146" s="15"/>
       <c r="X146" s="39"/>
-      <c r="Y146" s="47"/>
-      <c r="Z146" s="47"/>
-      <c r="AA146" s="47"/>
+      <c r="Y146" s="59"/>
+      <c r="Z146" s="59"/>
+      <c r="AA146" s="59"/>
       <c r="AB146" s="15"/>
       <c r="AC146" s="15"/>
       <c r="AD146" s="15"/>
@@ -6893,27 +6914,27 @@
       <c r="D150" s="39"/>
       <c r="E150" s="15"/>
       <c r="F150" s="39"/>
-      <c r="G150" s="46"/>
-      <c r="H150" s="46"/>
-      <c r="I150" s="46"/>
+      <c r="G150" s="58"/>
+      <c r="H150" s="58"/>
+      <c r="I150" s="58"/>
       <c r="J150" s="15"/>
       <c r="K150" s="34"/>
       <c r="L150" s="39"/>
       <c r="M150" s="39"/>
       <c r="N150" s="15"/>
       <c r="O150" s="39"/>
-      <c r="P150" s="46"/>
-      <c r="Q150" s="46"/>
-      <c r="R150" s="46"/>
+      <c r="P150" s="58"/>
+      <c r="Q150" s="58"/>
+      <c r="R150" s="58"/>
       <c r="S150" s="15"/>
       <c r="T150" s="34"/>
       <c r="U150" s="39"/>
       <c r="V150" s="39"/>
       <c r="W150" s="15"/>
       <c r="X150" s="39"/>
-      <c r="Y150" s="47"/>
-      <c r="Z150" s="47"/>
-      <c r="AA150" s="47"/>
+      <c r="Y150" s="59"/>
+      <c r="Z150" s="59"/>
+      <c r="AA150" s="59"/>
       <c r="AB150" s="15"/>
       <c r="AC150" s="15"/>
       <c r="AD150" s="15"/>
@@ -7348,27 +7369,27 @@
       <c r="D163" s="39"/>
       <c r="E163" s="15"/>
       <c r="F163" s="39"/>
-      <c r="G163" s="47"/>
-      <c r="H163" s="47"/>
-      <c r="I163" s="47"/>
+      <c r="G163" s="59"/>
+      <c r="H163" s="59"/>
+      <c r="I163" s="59"/>
       <c r="J163" s="15"/>
       <c r="K163" s="34"/>
       <c r="L163" s="39"/>
       <c r="M163" s="39"/>
       <c r="N163" s="15"/>
       <c r="O163" s="39"/>
-      <c r="P163" s="47"/>
-      <c r="Q163" s="47"/>
-      <c r="R163" s="47"/>
+      <c r="P163" s="59"/>
+      <c r="Q163" s="59"/>
+      <c r="R163" s="59"/>
       <c r="S163" s="15"/>
       <c r="T163" s="34"/>
       <c r="U163" s="39"/>
       <c r="V163" s="39"/>
       <c r="W163" s="15"/>
       <c r="X163" s="39"/>
-      <c r="Y163" s="47"/>
-      <c r="Z163" s="47"/>
-      <c r="AA163" s="47"/>
+      <c r="Y163" s="59"/>
+      <c r="Z163" s="59"/>
+      <c r="AA163" s="59"/>
       <c r="AB163" s="15"/>
       <c r="AC163" s="15"/>
       <c r="AD163" s="15"/>
@@ -7383,27 +7404,27 @@
       <c r="D164" s="39"/>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
-      <c r="G164" s="47"/>
-      <c r="H164" s="47"/>
-      <c r="I164" s="47"/>
+      <c r="G164" s="59"/>
+      <c r="H164" s="59"/>
+      <c r="I164" s="59"/>
       <c r="J164" s="15"/>
       <c r="K164" s="34"/>
       <c r="L164" s="39"/>
       <c r="M164" s="39"/>
       <c r="N164" s="15"/>
       <c r="O164" s="39"/>
-      <c r="P164" s="47"/>
-      <c r="Q164" s="47"/>
-      <c r="R164" s="47"/>
+      <c r="P164" s="59"/>
+      <c r="Q164" s="59"/>
+      <c r="R164" s="59"/>
       <c r="S164" s="15"/>
       <c r="T164" s="44"/>
       <c r="U164" s="39"/>
       <c r="V164" s="39"/>
       <c r="W164" s="15"/>
       <c r="X164" s="39"/>
-      <c r="Y164" s="47"/>
-      <c r="Z164" s="47"/>
-      <c r="AA164" s="47"/>
+      <c r="Y164" s="59"/>
+      <c r="Z164" s="59"/>
+      <c r="AA164" s="59"/>
       <c r="AB164" s="15"/>
       <c r="AC164" s="15"/>
       <c r="AD164" s="15"/>
@@ -7412,33 +7433,33 @@
       <c r="AG164" s="15"/>
     </row>
     <row r="165" spans="1:33" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A165" s="48"/>
-      <c r="B165" s="48"/>
-      <c r="C165" s="48"/>
-      <c r="D165" s="48"/>
-      <c r="E165" s="48"/>
-      <c r="F165" s="48"/>
-      <c r="G165" s="48"/>
-      <c r="H165" s="48"/>
-      <c r="I165" s="48"/>
-      <c r="J165" s="48"/>
-      <c r="K165" s="48"/>
-      <c r="L165" s="48"/>
-      <c r="M165" s="48"/>
-      <c r="N165" s="48"/>
-      <c r="O165" s="48"/>
-      <c r="P165" s="48"/>
-      <c r="Q165" s="48"/>
-      <c r="R165" s="48"/>
-      <c r="S165" s="48"/>
-      <c r="T165" s="48"/>
-      <c r="U165" s="48"/>
-      <c r="V165" s="48"/>
-      <c r="W165" s="48"/>
-      <c r="X165" s="48"/>
-      <c r="Y165" s="48"/>
-      <c r="Z165" s="48"/>
-      <c r="AA165" s="48"/>
+      <c r="A165" s="60"/>
+      <c r="B165" s="60"/>
+      <c r="C165" s="60"/>
+      <c r="D165" s="60"/>
+      <c r="E165" s="60"/>
+      <c r="F165" s="60"/>
+      <c r="G165" s="60"/>
+      <c r="H165" s="60"/>
+      <c r="I165" s="60"/>
+      <c r="J165" s="60"/>
+      <c r="K165" s="60"/>
+      <c r="L165" s="60"/>
+      <c r="M165" s="60"/>
+      <c r="N165" s="60"/>
+      <c r="O165" s="60"/>
+      <c r="P165" s="60"/>
+      <c r="Q165" s="60"/>
+      <c r="R165" s="60"/>
+      <c r="S165" s="60"/>
+      <c r="T165" s="60"/>
+      <c r="U165" s="60"/>
+      <c r="V165" s="60"/>
+      <c r="W165" s="60"/>
+      <c r="X165" s="60"/>
+      <c r="Y165" s="60"/>
+      <c r="Z165" s="60"/>
+      <c r="AA165" s="60"/>
       <c r="AB165" s="15"/>
       <c r="AC165" s="15"/>
       <c r="AD165" s="15"/>
@@ -7453,27 +7474,27 @@
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
-      <c r="G166" s="49"/>
-      <c r="H166" s="49"/>
-      <c r="I166" s="49"/>
+      <c r="G166" s="61"/>
+      <c r="H166" s="61"/>
+      <c r="I166" s="61"/>
       <c r="J166" s="15"/>
       <c r="K166" s="15"/>
       <c r="L166" s="15"/>
       <c r="M166" s="15"/>
       <c r="N166" s="15"/>
       <c r="O166" s="15"/>
-      <c r="P166" s="49"/>
-      <c r="Q166" s="49"/>
-      <c r="R166" s="49"/>
+      <c r="P166" s="61"/>
+      <c r="Q166" s="61"/>
+      <c r="R166" s="61"/>
       <c r="S166" s="15"/>
       <c r="T166" s="15"/>
       <c r="U166" s="15"/>
       <c r="V166" s="15"/>
       <c r="W166" s="15"/>
       <c r="X166" s="15"/>
-      <c r="Y166" s="49"/>
-      <c r="Z166" s="49"/>
-      <c r="AA166" s="49"/>
+      <c r="Y166" s="61"/>
+      <c r="Z166" s="61"/>
+      <c r="AA166" s="61"/>
       <c r="AB166" s="15"/>
       <c r="AC166" s="15"/>
       <c r="AD166" s="15"/>
@@ -7488,27 +7509,27 @@
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
-      <c r="G167" s="49"/>
-      <c r="H167" s="49"/>
-      <c r="I167" s="49"/>
+      <c r="G167" s="61"/>
+      <c r="H167" s="61"/>
+      <c r="I167" s="61"/>
       <c r="J167" s="15"/>
       <c r="K167" s="15"/>
       <c r="L167" s="15"/>
       <c r="M167" s="15"/>
       <c r="N167" s="15"/>
       <c r="O167" s="15"/>
-      <c r="P167" s="49"/>
-      <c r="Q167" s="49"/>
-      <c r="R167" s="49"/>
+      <c r="P167" s="61"/>
+      <c r="Q167" s="61"/>
+      <c r="R167" s="61"/>
       <c r="S167" s="15"/>
       <c r="T167" s="15"/>
       <c r="U167" s="15"/>
       <c r="V167" s="15"/>
       <c r="W167" s="15"/>
       <c r="X167" s="15"/>
-      <c r="Y167" s="49"/>
-      <c r="Z167" s="49"/>
-      <c r="AA167" s="49"/>
+      <c r="Y167" s="61"/>
+      <c r="Z167" s="61"/>
+      <c r="AA167" s="61"/>
       <c r="AB167" s="15"/>
       <c r="AC167" s="38"/>
       <c r="AD167" s="15"/>
@@ -7523,27 +7544,27 @@
       <c r="D168" s="39"/>
       <c r="E168" s="15"/>
       <c r="F168" s="39"/>
-      <c r="G168" s="46"/>
-      <c r="H168" s="46"/>
-      <c r="I168" s="46"/>
+      <c r="G168" s="58"/>
+      <c r="H168" s="58"/>
+      <c r="I168" s="58"/>
       <c r="J168" s="15"/>
       <c r="K168" s="34"/>
       <c r="L168" s="39"/>
       <c r="M168" s="39"/>
       <c r="N168" s="15"/>
       <c r="O168" s="39"/>
-      <c r="P168" s="46"/>
-      <c r="Q168" s="46"/>
-      <c r="R168" s="46"/>
+      <c r="P168" s="58"/>
+      <c r="Q168" s="58"/>
+      <c r="R168" s="58"/>
       <c r="S168" s="15"/>
       <c r="T168" s="34"/>
       <c r="U168" s="39"/>
       <c r="V168" s="39"/>
       <c r="W168" s="15"/>
       <c r="X168" s="39"/>
-      <c r="Y168" s="46"/>
-      <c r="Z168" s="46"/>
-      <c r="AA168" s="46"/>
+      <c r="Y168" s="58"/>
+      <c r="Z168" s="58"/>
+      <c r="AA168" s="58"/>
       <c r="AB168" s="15"/>
       <c r="AC168" s="45"/>
       <c r="AD168" s="15"/>
@@ -7558,27 +7579,27 @@
       <c r="D169" s="39"/>
       <c r="E169" s="15"/>
       <c r="F169" s="39"/>
-      <c r="G169" s="46"/>
-      <c r="H169" s="46"/>
-      <c r="I169" s="46"/>
+      <c r="G169" s="58"/>
+      <c r="H169" s="58"/>
+      <c r="I169" s="58"/>
       <c r="J169" s="15"/>
       <c r="K169" s="34"/>
       <c r="L169" s="39"/>
       <c r="M169" s="39"/>
       <c r="N169" s="15"/>
       <c r="O169" s="39"/>
-      <c r="P169" s="46"/>
-      <c r="Q169" s="46"/>
-      <c r="R169" s="46"/>
+      <c r="P169" s="58"/>
+      <c r="Q169" s="58"/>
+      <c r="R169" s="58"/>
       <c r="S169" s="15"/>
       <c r="T169" s="34"/>
       <c r="U169" s="39"/>
       <c r="V169" s="39"/>
       <c r="W169" s="15"/>
       <c r="X169" s="39"/>
-      <c r="Y169" s="46"/>
-      <c r="Z169" s="46"/>
-      <c r="AA169" s="46"/>
+      <c r="Y169" s="58"/>
+      <c r="Z169" s="58"/>
+      <c r="AA169" s="58"/>
       <c r="AB169" s="15"/>
       <c r="AC169" s="15"/>
       <c r="AD169" s="15"/>
@@ -7593,27 +7614,27 @@
       <c r="D170" s="39"/>
       <c r="E170" s="15"/>
       <c r="F170" s="39"/>
-      <c r="G170" s="46"/>
-      <c r="H170" s="46"/>
-      <c r="I170" s="46"/>
+      <c r="G170" s="58"/>
+      <c r="H170" s="58"/>
+      <c r="I170" s="58"/>
       <c r="J170" s="15"/>
       <c r="K170" s="34"/>
       <c r="L170" s="39"/>
       <c r="M170" s="39"/>
       <c r="N170" s="15"/>
       <c r="O170" s="39"/>
-      <c r="P170" s="46"/>
-      <c r="Q170" s="46"/>
-      <c r="R170" s="46"/>
+      <c r="P170" s="58"/>
+      <c r="Q170" s="58"/>
+      <c r="R170" s="58"/>
       <c r="S170" s="15"/>
       <c r="T170" s="34"/>
       <c r="U170" s="39"/>
       <c r="V170" s="39"/>
       <c r="W170" s="15"/>
       <c r="X170" s="39"/>
-      <c r="Y170" s="46"/>
-      <c r="Z170" s="46"/>
-      <c r="AA170" s="46"/>
+      <c r="Y170" s="58"/>
+      <c r="Z170" s="58"/>
+      <c r="AA170" s="58"/>
       <c r="AB170" s="15"/>
       <c r="AC170" s="15"/>
       <c r="AD170" s="15"/>
@@ -7628,27 +7649,27 @@
       <c r="D171" s="39"/>
       <c r="E171" s="39"/>
       <c r="F171" s="39"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="46"/>
-      <c r="I171" s="46"/>
+      <c r="G171" s="58"/>
+      <c r="H171" s="58"/>
+      <c r="I171" s="58"/>
       <c r="J171" s="15"/>
       <c r="K171" s="34"/>
       <c r="L171" s="39"/>
       <c r="M171" s="39"/>
       <c r="N171" s="39"/>
       <c r="O171" s="39"/>
-      <c r="P171" s="46"/>
-      <c r="Q171" s="46"/>
-      <c r="R171" s="46"/>
+      <c r="P171" s="58"/>
+      <c r="Q171" s="58"/>
+      <c r="R171" s="58"/>
       <c r="S171" s="15"/>
       <c r="T171" s="34"/>
       <c r="U171" s="39"/>
       <c r="V171" s="39"/>
       <c r="W171" s="39"/>
       <c r="X171" s="39"/>
-      <c r="Y171" s="46"/>
-      <c r="Z171" s="46"/>
-      <c r="AA171" s="46"/>
+      <c r="Y171" s="58"/>
+      <c r="Z171" s="58"/>
+      <c r="AA171" s="58"/>
       <c r="AB171" s="15"/>
       <c r="AC171" s="15"/>
       <c r="AD171" s="15"/>
@@ -7663,27 +7684,27 @@
       <c r="D172" s="39"/>
       <c r="E172" s="15"/>
       <c r="F172" s="39"/>
-      <c r="G172" s="46"/>
-      <c r="H172" s="46"/>
-      <c r="I172" s="46"/>
+      <c r="G172" s="58"/>
+      <c r="H172" s="58"/>
+      <c r="I172" s="58"/>
       <c r="J172" s="15"/>
       <c r="K172" s="34"/>
       <c r="L172" s="39"/>
       <c r="M172" s="39"/>
       <c r="N172" s="39"/>
       <c r="O172" s="39"/>
-      <c r="P172" s="46"/>
-      <c r="Q172" s="46"/>
-      <c r="R172" s="46"/>
+      <c r="P172" s="58"/>
+      <c r="Q172" s="58"/>
+      <c r="R172" s="58"/>
       <c r="S172" s="15"/>
       <c r="T172" s="34"/>
       <c r="U172" s="39"/>
       <c r="V172" s="39"/>
       <c r="W172" s="39"/>
       <c r="X172" s="39"/>
-      <c r="Y172" s="46"/>
-      <c r="Z172" s="46"/>
-      <c r="AA172" s="46"/>
+      <c r="Y172" s="58"/>
+      <c r="Z172" s="58"/>
+      <c r="AA172" s="58"/>
       <c r="AB172" s="15"/>
       <c r="AC172" s="15"/>
       <c r="AD172" s="15"/>
@@ -7698,27 +7719,27 @@
       <c r="D173" s="39"/>
       <c r="E173" s="15"/>
       <c r="F173" s="39"/>
-      <c r="G173" s="46"/>
-      <c r="H173" s="46"/>
-      <c r="I173" s="46"/>
+      <c r="G173" s="58"/>
+      <c r="H173" s="58"/>
+      <c r="I173" s="58"/>
       <c r="J173" s="15"/>
       <c r="K173" s="34"/>
       <c r="L173" s="39"/>
       <c r="M173" s="39"/>
       <c r="N173" s="15"/>
       <c r="O173" s="39"/>
-      <c r="P173" s="46"/>
-      <c r="Q173" s="46"/>
-      <c r="R173" s="46"/>
+      <c r="P173" s="58"/>
+      <c r="Q173" s="58"/>
+      <c r="R173" s="58"/>
       <c r="S173" s="15"/>
       <c r="T173" s="34"/>
       <c r="U173" s="39"/>
       <c r="V173" s="39"/>
       <c r="W173" s="39"/>
       <c r="X173" s="39"/>
-      <c r="Y173" s="46"/>
-      <c r="Z173" s="46"/>
-      <c r="AA173" s="46"/>
+      <c r="Y173" s="58"/>
+      <c r="Z173" s="58"/>
+      <c r="AA173" s="58"/>
       <c r="AB173" s="15"/>
       <c r="AC173" s="15"/>
       <c r="AD173" s="15"/>
@@ -7733,27 +7754,27 @@
       <c r="D174" s="39"/>
       <c r="E174" s="15"/>
       <c r="F174" s="39"/>
-      <c r="G174" s="46"/>
-      <c r="H174" s="46"/>
-      <c r="I174" s="46"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="58"/>
       <c r="J174" s="15"/>
       <c r="K174" s="34"/>
       <c r="L174" s="39"/>
       <c r="M174" s="39"/>
       <c r="N174" s="15"/>
       <c r="O174" s="39"/>
-      <c r="P174" s="46"/>
-      <c r="Q174" s="46"/>
-      <c r="R174" s="46"/>
+      <c r="P174" s="58"/>
+      <c r="Q174" s="58"/>
+      <c r="R174" s="58"/>
       <c r="S174" s="15"/>
       <c r="T174" s="34"/>
       <c r="U174" s="39"/>
       <c r="V174" s="39"/>
       <c r="W174" s="39"/>
       <c r="X174" s="39"/>
-      <c r="Y174" s="46"/>
-      <c r="Z174" s="46"/>
-      <c r="AA174" s="46"/>
+      <c r="Y174" s="58"/>
+      <c r="Z174" s="58"/>
+      <c r="AA174" s="58"/>
       <c r="AB174" s="15"/>
       <c r="AC174" s="15"/>
       <c r="AD174" s="15"/>
@@ -7768,27 +7789,27 @@
       <c r="D175" s="39"/>
       <c r="E175" s="15"/>
       <c r="F175" s="39"/>
-      <c r="G175" s="46"/>
-      <c r="H175" s="46"/>
-      <c r="I175" s="46"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="58"/>
       <c r="J175" s="15"/>
       <c r="K175" s="34"/>
       <c r="L175" s="39"/>
       <c r="M175" s="39"/>
       <c r="N175" s="15"/>
       <c r="O175" s="39"/>
-      <c r="P175" s="46"/>
-      <c r="Q175" s="46"/>
-      <c r="R175" s="46"/>
+      <c r="P175" s="58"/>
+      <c r="Q175" s="58"/>
+      <c r="R175" s="58"/>
       <c r="S175" s="15"/>
       <c r="T175" s="34"/>
       <c r="U175" s="39"/>
       <c r="V175" s="39"/>
       <c r="W175" s="39"/>
       <c r="X175" s="39"/>
-      <c r="Y175" s="46"/>
-      <c r="Z175" s="46"/>
-      <c r="AA175" s="46"/>
+      <c r="Y175" s="58"/>
+      <c r="Z175" s="58"/>
+      <c r="AA175" s="58"/>
       <c r="AB175" s="15"/>
       <c r="AC175" s="15"/>
       <c r="AD175" s="15"/>
@@ -7803,27 +7824,27 @@
       <c r="D176" s="39"/>
       <c r="E176" s="15"/>
       <c r="F176" s="39"/>
-      <c r="G176" s="46"/>
-      <c r="H176" s="46"/>
-      <c r="I176" s="46"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="58"/>
       <c r="J176" s="15"/>
       <c r="K176" s="34"/>
       <c r="L176" s="39"/>
       <c r="M176" s="39"/>
       <c r="N176" s="15"/>
       <c r="O176" s="39"/>
-      <c r="P176" s="46"/>
-      <c r="Q176" s="46"/>
-      <c r="R176" s="46"/>
+      <c r="P176" s="58"/>
+      <c r="Q176" s="58"/>
+      <c r="R176" s="58"/>
       <c r="S176" s="15"/>
       <c r="T176" s="34"/>
       <c r="U176" s="39"/>
       <c r="V176" s="39"/>
       <c r="W176" s="39"/>
       <c r="X176" s="39"/>
-      <c r="Y176" s="46"/>
-      <c r="Z176" s="46"/>
-      <c r="AA176" s="46"/>
+      <c r="Y176" s="58"/>
+      <c r="Z176" s="58"/>
+      <c r="AA176" s="58"/>
       <c r="AB176" s="15"/>
       <c r="AC176" s="15"/>
       <c r="AD176" s="15"/>
@@ -7838,27 +7859,27 @@
       <c r="D177" s="39"/>
       <c r="E177" s="15"/>
       <c r="F177" s="39"/>
-      <c r="G177" s="46"/>
-      <c r="H177" s="46"/>
-      <c r="I177" s="46"/>
+      <c r="G177" s="58"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="58"/>
       <c r="J177" s="15"/>
       <c r="K177" s="34"/>
       <c r="L177" s="39"/>
       <c r="M177" s="39"/>
       <c r="N177" s="15"/>
       <c r="O177" s="39"/>
-      <c r="P177" s="46"/>
-      <c r="Q177" s="46"/>
-      <c r="R177" s="46"/>
+      <c r="P177" s="58"/>
+      <c r="Q177" s="58"/>
+      <c r="R177" s="58"/>
       <c r="S177" s="15"/>
       <c r="T177" s="34"/>
       <c r="U177" s="39"/>
       <c r="V177" s="39"/>
       <c r="W177" s="39"/>
       <c r="X177" s="39"/>
-      <c r="Y177" s="46"/>
-      <c r="Z177" s="46"/>
-      <c r="AA177" s="46"/>
+      <c r="Y177" s="58"/>
+      <c r="Z177" s="58"/>
+      <c r="AA177" s="58"/>
       <c r="AB177" s="15"/>
       <c r="AC177" s="15"/>
       <c r="AD177" s="15"/>
@@ -7873,27 +7894,27 @@
       <c r="D178" s="39"/>
       <c r="E178" s="15"/>
       <c r="F178" s="39"/>
-      <c r="G178" s="46"/>
-      <c r="H178" s="46"/>
-      <c r="I178" s="46"/>
+      <c r="G178" s="58"/>
+      <c r="H178" s="58"/>
+      <c r="I178" s="58"/>
       <c r="J178" s="15"/>
       <c r="K178" s="34"/>
       <c r="L178" s="39"/>
       <c r="M178" s="39"/>
       <c r="N178" s="15"/>
       <c r="O178" s="39"/>
-      <c r="P178" s="46"/>
-      <c r="Q178" s="46"/>
-      <c r="R178" s="46"/>
+      <c r="P178" s="58"/>
+      <c r="Q178" s="58"/>
+      <c r="R178" s="58"/>
       <c r="S178" s="15"/>
       <c r="T178" s="34"/>
       <c r="U178" s="39"/>
       <c r="V178" s="39"/>
       <c r="W178" s="39"/>
       <c r="X178" s="39"/>
-      <c r="Y178" s="46"/>
-      <c r="Z178" s="46"/>
-      <c r="AA178" s="46"/>
+      <c r="Y178" s="58"/>
+      <c r="Z178" s="58"/>
+      <c r="AA178" s="58"/>
       <c r="AB178" s="15"/>
       <c r="AC178" s="15"/>
       <c r="AD178" s="15"/>
@@ -7908,27 +7929,27 @@
       <c r="D179" s="39"/>
       <c r="E179" s="15"/>
       <c r="F179" s="39"/>
-      <c r="G179" s="46"/>
-      <c r="H179" s="46"/>
-      <c r="I179" s="46"/>
+      <c r="G179" s="58"/>
+      <c r="H179" s="58"/>
+      <c r="I179" s="58"/>
       <c r="J179" s="15"/>
       <c r="K179" s="34"/>
       <c r="L179" s="39"/>
       <c r="M179" s="39"/>
       <c r="N179" s="15"/>
       <c r="O179" s="39"/>
-      <c r="P179" s="46"/>
-      <c r="Q179" s="46"/>
-      <c r="R179" s="46"/>
+      <c r="P179" s="58"/>
+      <c r="Q179" s="58"/>
+      <c r="R179" s="58"/>
       <c r="S179" s="15"/>
       <c r="T179" s="34"/>
       <c r="U179" s="39"/>
       <c r="V179" s="39"/>
       <c r="W179" s="39"/>
       <c r="X179" s="39"/>
-      <c r="Y179" s="46"/>
-      <c r="Z179" s="46"/>
-      <c r="AA179" s="46"/>
+      <c r="Y179" s="58"/>
+      <c r="Z179" s="58"/>
+      <c r="AA179" s="58"/>
       <c r="AB179" s="15"/>
       <c r="AC179" s="15"/>
       <c r="AD179" s="15"/>
@@ -7943,27 +7964,27 @@
       <c r="D180" s="39"/>
       <c r="E180" s="15"/>
       <c r="F180" s="39"/>
-      <c r="G180" s="46"/>
-      <c r="H180" s="46"/>
-      <c r="I180" s="46"/>
+      <c r="G180" s="58"/>
+      <c r="H180" s="58"/>
+      <c r="I180" s="58"/>
       <c r="J180" s="15"/>
       <c r="K180" s="34"/>
       <c r="L180" s="39"/>
       <c r="M180" s="39"/>
       <c r="N180" s="15"/>
       <c r="O180" s="39"/>
-      <c r="P180" s="46"/>
-      <c r="Q180" s="46"/>
-      <c r="R180" s="46"/>
+      <c r="P180" s="58"/>
+      <c r="Q180" s="58"/>
+      <c r="R180" s="58"/>
       <c r="S180" s="15"/>
       <c r="T180" s="34"/>
       <c r="U180" s="39"/>
       <c r="V180" s="39"/>
       <c r="W180" s="39"/>
       <c r="X180" s="39"/>
-      <c r="Y180" s="46"/>
-      <c r="Z180" s="46"/>
-      <c r="AA180" s="46"/>
+      <c r="Y180" s="58"/>
+      <c r="Z180" s="58"/>
+      <c r="AA180" s="58"/>
       <c r="AB180" s="15"/>
       <c r="AC180" s="15"/>
       <c r="AD180" s="15"/>
@@ -7996,9 +8017,9 @@
       <c r="V181" s="39"/>
       <c r="W181" s="39"/>
       <c r="X181" s="39"/>
-      <c r="Y181" s="46"/>
-      <c r="Z181" s="46"/>
-      <c r="AA181" s="46"/>
+      <c r="Y181" s="58"/>
+      <c r="Z181" s="58"/>
+      <c r="AA181" s="58"/>
       <c r="AB181" s="15"/>
       <c r="AC181" s="15"/>
       <c r="AD181" s="15"/>
@@ -8679,9 +8700,9 @@
       <c r="Z211" s="39"/>
       <c r="AA211" s="39"/>
       <c r="AB211" s="39"/>
-      <c r="AC211" s="46"/>
-      <c r="AD211" s="46"/>
-      <c r="AE211" s="46"/>
+      <c r="AC211" s="58"/>
+      <c r="AD211" s="58"/>
+      <c r="AE211" s="58"/>
       <c r="AF211" s="15"/>
       <c r="AG211" s="15"/>
       <c r="AH211" s="15"/>
@@ -8716,9 +8737,9 @@
       <c r="Z212" s="39"/>
       <c r="AA212" s="39"/>
       <c r="AB212" s="39"/>
-      <c r="AC212" s="46"/>
-      <c r="AD212" s="46"/>
-      <c r="AE212" s="46"/>
+      <c r="AC212" s="58"/>
+      <c r="AD212" s="58"/>
+      <c r="AE212" s="58"/>
       <c r="AF212" s="15"/>
       <c r="AG212" s="15"/>
       <c r="AH212" s="15"/>
@@ -8753,9 +8774,9 @@
       <c r="Z213" s="39"/>
       <c r="AA213" s="39"/>
       <c r="AB213" s="39"/>
-      <c r="AC213" s="46"/>
-      <c r="AD213" s="46"/>
-      <c r="AE213" s="46"/>
+      <c r="AC213" s="58"/>
+      <c r="AD213" s="58"/>
+      <c r="AE213" s="58"/>
       <c r="AF213" s="15"/>
       <c r="AG213" s="15"/>
       <c r="AH213" s="15"/>
@@ -8790,9 +8811,9 @@
       <c r="Z214" s="39"/>
       <c r="AA214" s="39"/>
       <c r="AB214" s="39"/>
-      <c r="AC214" s="46"/>
-      <c r="AD214" s="46"/>
-      <c r="AE214" s="46"/>
+      <c r="AC214" s="58"/>
+      <c r="AD214" s="58"/>
+      <c r="AE214" s="58"/>
       <c r="AF214" s="15"/>
       <c r="AG214" s="15"/>
       <c r="AH214" s="15"/>
@@ -8827,9 +8848,9 @@
       <c r="Z215" s="39"/>
       <c r="AA215" s="39"/>
       <c r="AB215" s="39"/>
-      <c r="AC215" s="46"/>
-      <c r="AD215" s="46"/>
-      <c r="AE215" s="46"/>
+      <c r="AC215" s="58"/>
+      <c r="AD215" s="58"/>
+      <c r="AE215" s="58"/>
       <c r="AF215" s="15"/>
       <c r="AG215" s="15"/>
       <c r="AH215" s="15"/>
@@ -8864,9 +8885,9 @@
       <c r="Z216" s="39"/>
       <c r="AA216" s="39"/>
       <c r="AB216" s="39"/>
-      <c r="AC216" s="46"/>
-      <c r="AD216" s="46"/>
-      <c r="AE216" s="46"/>
+      <c r="AC216" s="58"/>
+      <c r="AD216" s="58"/>
+      <c r="AE216" s="58"/>
       <c r="AF216" s="15"/>
       <c r="AG216" s="15"/>
       <c r="AH216" s="15"/>
@@ -8901,9 +8922,9 @@
       <c r="Z217" s="39"/>
       <c r="AA217" s="39"/>
       <c r="AB217" s="39"/>
-      <c r="AC217" s="46"/>
-      <c r="AD217" s="46"/>
-      <c r="AE217" s="46"/>
+      <c r="AC217" s="58"/>
+      <c r="AD217" s="58"/>
+      <c r="AE217" s="58"/>
       <c r="AF217" s="15"/>
       <c r="AG217" s="15"/>
       <c r="AH217" s="15"/>
@@ -8938,9 +8959,9 @@
       <c r="Z218" s="39"/>
       <c r="AA218" s="39"/>
       <c r="AB218" s="39"/>
-      <c r="AC218" s="46"/>
-      <c r="AD218" s="46"/>
-      <c r="AE218" s="46"/>
+      <c r="AC218" s="58"/>
+      <c r="AD218" s="58"/>
+      <c r="AE218" s="58"/>
       <c r="AF218" s="15"/>
       <c r="AG218" s="15"/>
       <c r="AH218" s="15"/>
@@ -8975,9 +8996,9 @@
       <c r="Z219" s="39"/>
       <c r="AA219" s="39"/>
       <c r="AB219" s="39"/>
-      <c r="AC219" s="46"/>
-      <c r="AD219" s="46"/>
-      <c r="AE219" s="46"/>
+      <c r="AC219" s="58"/>
+      <c r="AD219" s="58"/>
+      <c r="AE219" s="58"/>
       <c r="AF219" s="15"/>
       <c r="AG219" s="15"/>
       <c r="AH219" s="15"/>
@@ -9243,33 +9264,33 @@
       <c r="AI226" s="15"/>
     </row>
     <row r="227" spans="1:35" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="48"/>
-      <c r="B227" s="48"/>
-      <c r="C227" s="48"/>
-      <c r="D227" s="48"/>
-      <c r="E227" s="48"/>
-      <c r="F227" s="48"/>
-      <c r="G227" s="48"/>
-      <c r="H227" s="48"/>
-      <c r="I227" s="48"/>
-      <c r="J227" s="48"/>
-      <c r="K227" s="48"/>
-      <c r="L227" s="48"/>
-      <c r="M227" s="48"/>
-      <c r="N227" s="48"/>
-      <c r="O227" s="48"/>
-      <c r="P227" s="48"/>
-      <c r="Q227" s="48"/>
-      <c r="R227" s="48"/>
-      <c r="S227" s="48"/>
-      <c r="T227" s="48"/>
-      <c r="U227" s="48"/>
-      <c r="V227" s="48"/>
-      <c r="W227" s="48"/>
-      <c r="X227" s="48"/>
-      <c r="Y227" s="48"/>
-      <c r="Z227" s="48"/>
-      <c r="AA227" s="48"/>
+      <c r="A227" s="60"/>
+      <c r="B227" s="60"/>
+      <c r="C227" s="60"/>
+      <c r="D227" s="60"/>
+      <c r="E227" s="60"/>
+      <c r="F227" s="60"/>
+      <c r="G227" s="60"/>
+      <c r="H227" s="60"/>
+      <c r="I227" s="60"/>
+      <c r="J227" s="60"/>
+      <c r="K227" s="60"/>
+      <c r="L227" s="60"/>
+      <c r="M227" s="60"/>
+      <c r="N227" s="60"/>
+      <c r="O227" s="60"/>
+      <c r="P227" s="60"/>
+      <c r="Q227" s="60"/>
+      <c r="R227" s="60"/>
+      <c r="S227" s="60"/>
+      <c r="T227" s="60"/>
+      <c r="U227" s="60"/>
+      <c r="V227" s="60"/>
+      <c r="W227" s="60"/>
+      <c r="X227" s="60"/>
+      <c r="Y227" s="60"/>
+      <c r="Z227" s="60"/>
+      <c r="AA227" s="60"/>
       <c r="AB227" s="15"/>
       <c r="AC227" s="15"/>
       <c r="AD227" s="15"/>
@@ -9280,33 +9301,33 @@
       <c r="AI227" s="15"/>
     </row>
     <row r="228" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A228" s="48"/>
-      <c r="B228" s="48"/>
-      <c r="C228" s="48"/>
-      <c r="D228" s="48"/>
-      <c r="E228" s="48"/>
-      <c r="F228" s="48"/>
-      <c r="G228" s="48"/>
-      <c r="H228" s="48"/>
-      <c r="I228" s="48"/>
-      <c r="J228" s="48"/>
-      <c r="K228" s="48"/>
-      <c r="L228" s="48"/>
-      <c r="M228" s="48"/>
-      <c r="N228" s="48"/>
-      <c r="O228" s="48"/>
-      <c r="P228" s="48"/>
-      <c r="Q228" s="48"/>
-      <c r="R228" s="48"/>
-      <c r="S228" s="48"/>
-      <c r="T228" s="48"/>
-      <c r="U228" s="48"/>
-      <c r="V228" s="48"/>
-      <c r="W228" s="48"/>
-      <c r="X228" s="48"/>
-      <c r="Y228" s="48"/>
-      <c r="Z228" s="48"/>
-      <c r="AA228" s="48"/>
+      <c r="A228" s="60"/>
+      <c r="B228" s="60"/>
+      <c r="C228" s="60"/>
+      <c r="D228" s="60"/>
+      <c r="E228" s="60"/>
+      <c r="F228" s="60"/>
+      <c r="G228" s="60"/>
+      <c r="H228" s="60"/>
+      <c r="I228" s="60"/>
+      <c r="J228" s="60"/>
+      <c r="K228" s="60"/>
+      <c r="L228" s="60"/>
+      <c r="M228" s="60"/>
+      <c r="N228" s="60"/>
+      <c r="O228" s="60"/>
+      <c r="P228" s="60"/>
+      <c r="Q228" s="60"/>
+      <c r="R228" s="60"/>
+      <c r="S228" s="60"/>
+      <c r="T228" s="60"/>
+      <c r="U228" s="60"/>
+      <c r="V228" s="60"/>
+      <c r="W228" s="60"/>
+      <c r="X228" s="60"/>
+      <c r="Y228" s="60"/>
+      <c r="Z228" s="60"/>
+      <c r="AA228" s="60"/>
       <c r="AB228" s="15"/>
       <c r="AC228" s="15"/>
       <c r="AD228" s="15"/>
@@ -9317,33 +9338,33 @@
       <c r="AI228" s="15"/>
     </row>
     <row r="229" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A229" s="48"/>
-      <c r="B229" s="48"/>
-      <c r="C229" s="48"/>
-      <c r="D229" s="48"/>
-      <c r="E229" s="48"/>
-      <c r="F229" s="48"/>
-      <c r="G229" s="48"/>
-      <c r="H229" s="48"/>
-      <c r="I229" s="48"/>
-      <c r="J229" s="48"/>
-      <c r="K229" s="48"/>
-      <c r="L229" s="48"/>
-      <c r="M229" s="48"/>
-      <c r="N229" s="48"/>
-      <c r="O229" s="48"/>
-      <c r="P229" s="48"/>
-      <c r="Q229" s="48"/>
-      <c r="R229" s="48"/>
-      <c r="S229" s="48"/>
-      <c r="T229" s="48"/>
-      <c r="U229" s="48"/>
-      <c r="V229" s="48"/>
-      <c r="W229" s="48"/>
-      <c r="X229" s="48"/>
-      <c r="Y229" s="48"/>
-      <c r="Z229" s="48"/>
-      <c r="AA229" s="48"/>
+      <c r="A229" s="60"/>
+      <c r="B229" s="60"/>
+      <c r="C229" s="60"/>
+      <c r="D229" s="60"/>
+      <c r="E229" s="60"/>
+      <c r="F229" s="60"/>
+      <c r="G229" s="60"/>
+      <c r="H229" s="60"/>
+      <c r="I229" s="60"/>
+      <c r="J229" s="60"/>
+      <c r="K229" s="60"/>
+      <c r="L229" s="60"/>
+      <c r="M229" s="60"/>
+      <c r="N229" s="60"/>
+      <c r="O229" s="60"/>
+      <c r="P229" s="60"/>
+      <c r="Q229" s="60"/>
+      <c r="R229" s="60"/>
+      <c r="S229" s="60"/>
+      <c r="T229" s="60"/>
+      <c r="U229" s="60"/>
+      <c r="V229" s="60"/>
+      <c r="W229" s="60"/>
+      <c r="X229" s="60"/>
+      <c r="Y229" s="60"/>
+      <c r="Z229" s="60"/>
+      <c r="AA229" s="60"/>
       <c r="AB229" s="15"/>
       <c r="AC229" s="15"/>
       <c r="AD229" s="15"/>
@@ -9354,33 +9375,33 @@
       <c r="AI229" s="15"/>
     </row>
     <row r="230" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A230" s="48"/>
-      <c r="B230" s="48"/>
-      <c r="C230" s="48"/>
-      <c r="D230" s="48"/>
-      <c r="E230" s="48"/>
-      <c r="F230" s="48"/>
-      <c r="G230" s="48"/>
-      <c r="H230" s="48"/>
-      <c r="I230" s="48"/>
-      <c r="J230" s="48"/>
-      <c r="K230" s="48"/>
-      <c r="L230" s="48"/>
-      <c r="M230" s="48"/>
-      <c r="N230" s="48"/>
-      <c r="O230" s="48"/>
-      <c r="P230" s="48"/>
-      <c r="Q230" s="48"/>
-      <c r="R230" s="48"/>
-      <c r="S230" s="48"/>
-      <c r="T230" s="48"/>
-      <c r="U230" s="48"/>
-      <c r="V230" s="48"/>
-      <c r="W230" s="48"/>
-      <c r="X230" s="48"/>
-      <c r="Y230" s="48"/>
-      <c r="Z230" s="48"/>
-      <c r="AA230" s="48"/>
+      <c r="A230" s="60"/>
+      <c r="B230" s="60"/>
+      <c r="C230" s="60"/>
+      <c r="D230" s="60"/>
+      <c r="E230" s="60"/>
+      <c r="F230" s="60"/>
+      <c r="G230" s="60"/>
+      <c r="H230" s="60"/>
+      <c r="I230" s="60"/>
+      <c r="J230" s="60"/>
+      <c r="K230" s="60"/>
+      <c r="L230" s="60"/>
+      <c r="M230" s="60"/>
+      <c r="N230" s="60"/>
+      <c r="O230" s="60"/>
+      <c r="P230" s="60"/>
+      <c r="Q230" s="60"/>
+      <c r="R230" s="60"/>
+      <c r="S230" s="60"/>
+      <c r="T230" s="60"/>
+      <c r="U230" s="60"/>
+      <c r="V230" s="60"/>
+      <c r="W230" s="60"/>
+      <c r="X230" s="60"/>
+      <c r="Y230" s="60"/>
+      <c r="Z230" s="60"/>
+      <c r="AA230" s="60"/>
       <c r="AB230" s="15"/>
       <c r="AC230" s="15"/>
       <c r="AD230" s="15"/>
@@ -9428,33 +9449,33 @@
       <c r="AI231" s="15"/>
     </row>
     <row r="232" spans="1:35" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A232" s="48"/>
-      <c r="B232" s="48"/>
-      <c r="C232" s="48"/>
-      <c r="D232" s="48"/>
-      <c r="E232" s="48"/>
-      <c r="F232" s="48"/>
-      <c r="G232" s="48"/>
-      <c r="H232" s="48"/>
-      <c r="I232" s="48"/>
-      <c r="J232" s="48"/>
-      <c r="K232" s="48"/>
-      <c r="L232" s="48"/>
-      <c r="M232" s="48"/>
-      <c r="N232" s="48"/>
-      <c r="O232" s="48"/>
-      <c r="P232" s="48"/>
-      <c r="Q232" s="48"/>
-      <c r="R232" s="48"/>
-      <c r="S232" s="48"/>
-      <c r="T232" s="48"/>
-      <c r="U232" s="48"/>
-      <c r="V232" s="48"/>
-      <c r="W232" s="48"/>
-      <c r="X232" s="48"/>
-      <c r="Y232" s="48"/>
-      <c r="Z232" s="48"/>
-      <c r="AA232" s="48"/>
+      <c r="A232" s="60"/>
+      <c r="B232" s="60"/>
+      <c r="C232" s="60"/>
+      <c r="D232" s="60"/>
+      <c r="E232" s="60"/>
+      <c r="F232" s="60"/>
+      <c r="G232" s="60"/>
+      <c r="H232" s="60"/>
+      <c r="I232" s="60"/>
+      <c r="J232" s="60"/>
+      <c r="K232" s="60"/>
+      <c r="L232" s="60"/>
+      <c r="M232" s="60"/>
+      <c r="N232" s="60"/>
+      <c r="O232" s="60"/>
+      <c r="P232" s="60"/>
+      <c r="Q232" s="60"/>
+      <c r="R232" s="60"/>
+      <c r="S232" s="60"/>
+      <c r="T232" s="60"/>
+      <c r="U232" s="60"/>
+      <c r="V232" s="60"/>
+      <c r="W232" s="60"/>
+      <c r="X232" s="60"/>
+      <c r="Y232" s="60"/>
+      <c r="Z232" s="60"/>
+      <c r="AA232" s="60"/>
       <c r="AB232" s="15"/>
       <c r="AC232" s="15"/>
       <c r="AD232" s="15"/>
@@ -9471,27 +9492,27 @@
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
       <c r="F233" s="15"/>
-      <c r="G233" s="49"/>
-      <c r="H233" s="49"/>
-      <c r="I233" s="49"/>
+      <c r="G233" s="61"/>
+      <c r="H233" s="61"/>
+      <c r="I233" s="61"/>
       <c r="J233" s="15"/>
       <c r="K233" s="15"/>
       <c r="L233" s="15"/>
       <c r="M233" s="15"/>
       <c r="N233" s="15"/>
       <c r="O233" s="15"/>
-      <c r="P233" s="49"/>
-      <c r="Q233" s="49"/>
-      <c r="R233" s="49"/>
+      <c r="P233" s="61"/>
+      <c r="Q233" s="61"/>
+      <c r="R233" s="61"/>
       <c r="S233" s="15"/>
       <c r="T233" s="15"/>
       <c r="U233" s="15"/>
       <c r="V233" s="15"/>
       <c r="W233" s="15"/>
       <c r="X233" s="15"/>
-      <c r="Y233" s="49"/>
-      <c r="Z233" s="49"/>
-      <c r="AA233" s="49"/>
+      <c r="Y233" s="61"/>
+      <c r="Z233" s="61"/>
+      <c r="AA233" s="61"/>
       <c r="AB233" s="15"/>
       <c r="AC233" s="15"/>
       <c r="AD233" s="15"/>
@@ -9508,27 +9529,27 @@
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
       <c r="F234" s="15"/>
-      <c r="G234" s="49"/>
-      <c r="H234" s="49"/>
-      <c r="I234" s="49"/>
+      <c r="G234" s="61"/>
+      <c r="H234" s="61"/>
+      <c r="I234" s="61"/>
       <c r="J234" s="15"/>
       <c r="K234" s="15"/>
       <c r="L234" s="15"/>
       <c r="M234" s="15"/>
       <c r="N234" s="15"/>
       <c r="O234" s="15"/>
-      <c r="P234" s="49"/>
-      <c r="Q234" s="49"/>
-      <c r="R234" s="49"/>
+      <c r="P234" s="61"/>
+      <c r="Q234" s="61"/>
+      <c r="R234" s="61"/>
       <c r="S234" s="15"/>
       <c r="T234" s="15"/>
       <c r="U234" s="15"/>
       <c r="V234" s="15"/>
       <c r="W234" s="15"/>
       <c r="X234" s="15"/>
-      <c r="Y234" s="49"/>
-      <c r="Z234" s="49"/>
-      <c r="AA234" s="49"/>
+      <c r="Y234" s="61"/>
+      <c r="Z234" s="61"/>
+      <c r="AA234" s="61"/>
       <c r="AB234" s="15"/>
       <c r="AC234" s="38"/>
       <c r="AD234" s="15"/>
@@ -9545,27 +9566,27 @@
       <c r="D235" s="39"/>
       <c r="E235" s="15"/>
       <c r="F235" s="39"/>
-      <c r="G235" s="46"/>
-      <c r="H235" s="46"/>
-      <c r="I235" s="46"/>
+      <c r="G235" s="58"/>
+      <c r="H235" s="58"/>
+      <c r="I235" s="58"/>
       <c r="J235" s="15"/>
       <c r="K235" s="34"/>
       <c r="L235" s="39"/>
       <c r="M235" s="39"/>
       <c r="N235" s="15"/>
       <c r="O235" s="39"/>
-      <c r="P235" s="46"/>
-      <c r="Q235" s="46"/>
-      <c r="R235" s="46"/>
+      <c r="P235" s="58"/>
+      <c r="Q235" s="58"/>
+      <c r="R235" s="58"/>
       <c r="S235" s="15"/>
       <c r="T235" s="34"/>
       <c r="U235" s="39"/>
       <c r="V235" s="39"/>
       <c r="W235" s="15"/>
       <c r="X235" s="39"/>
-      <c r="Y235" s="46"/>
-      <c r="Z235" s="46"/>
-      <c r="AA235" s="46"/>
+      <c r="Y235" s="58"/>
+      <c r="Z235" s="58"/>
+      <c r="AA235" s="58"/>
       <c r="AB235" s="15"/>
       <c r="AC235" s="45"/>
       <c r="AD235" s="15"/>
@@ -9582,27 +9603,27 @@
       <c r="D236" s="39"/>
       <c r="E236" s="15"/>
       <c r="F236" s="39"/>
-      <c r="G236" s="46"/>
-      <c r="H236" s="46"/>
-      <c r="I236" s="46"/>
+      <c r="G236" s="58"/>
+      <c r="H236" s="58"/>
+      <c r="I236" s="58"/>
       <c r="J236" s="15"/>
       <c r="K236" s="34"/>
       <c r="L236" s="39"/>
       <c r="M236" s="39"/>
       <c r="N236" s="39"/>
       <c r="O236" s="39"/>
-      <c r="P236" s="46"/>
-      <c r="Q236" s="46"/>
-      <c r="R236" s="46"/>
+      <c r="P236" s="58"/>
+      <c r="Q236" s="58"/>
+      <c r="R236" s="58"/>
       <c r="S236" s="15"/>
       <c r="T236" s="34"/>
       <c r="U236" s="39"/>
       <c r="V236" s="39"/>
       <c r="W236" s="15"/>
       <c r="X236" s="39"/>
-      <c r="Y236" s="46"/>
-      <c r="Z236" s="46"/>
-      <c r="AA236" s="46"/>
+      <c r="Y236" s="58"/>
+      <c r="Z236" s="58"/>
+      <c r="AA236" s="58"/>
       <c r="AB236" s="15"/>
       <c r="AC236" s="15"/>
       <c r="AD236" s="15"/>
@@ -9619,27 +9640,27 @@
       <c r="D237" s="39"/>
       <c r="E237" s="15"/>
       <c r="F237" s="39"/>
-      <c r="G237" s="46"/>
-      <c r="H237" s="46"/>
-      <c r="I237" s="46"/>
+      <c r="G237" s="58"/>
+      <c r="H237" s="58"/>
+      <c r="I237" s="58"/>
       <c r="J237" s="15"/>
       <c r="K237" s="34"/>
       <c r="L237" s="39"/>
       <c r="M237" s="39"/>
       <c r="N237" s="15"/>
       <c r="O237" s="39"/>
-      <c r="P237" s="46"/>
-      <c r="Q237" s="46"/>
-      <c r="R237" s="46"/>
+      <c r="P237" s="58"/>
+      <c r="Q237" s="58"/>
+      <c r="R237" s="58"/>
       <c r="S237" s="15"/>
       <c r="T237" s="34"/>
       <c r="U237" s="39"/>
       <c r="V237" s="39"/>
       <c r="W237" s="15"/>
       <c r="X237" s="39"/>
-      <c r="Y237" s="46"/>
-      <c r="Z237" s="46"/>
-      <c r="AA237" s="46"/>
+      <c r="Y237" s="58"/>
+      <c r="Z237" s="58"/>
+      <c r="AA237" s="58"/>
       <c r="AB237" s="15"/>
       <c r="AC237" s="15"/>
       <c r="AD237" s="15"/>
@@ -9656,27 +9677,27 @@
       <c r="D238" s="39"/>
       <c r="E238" s="39"/>
       <c r="F238" s="36"/>
-      <c r="G238" s="46"/>
-      <c r="H238" s="46"/>
-      <c r="I238" s="46"/>
+      <c r="G238" s="58"/>
+      <c r="H238" s="58"/>
+      <c r="I238" s="58"/>
       <c r="J238" s="15"/>
       <c r="K238" s="34"/>
       <c r="L238" s="39"/>
       <c r="M238" s="39"/>
       <c r="N238" s="39"/>
       <c r="O238" s="36"/>
-      <c r="P238" s="46"/>
-      <c r="Q238" s="46"/>
-      <c r="R238" s="46"/>
+      <c r="P238" s="58"/>
+      <c r="Q238" s="58"/>
+      <c r="R238" s="58"/>
       <c r="S238" s="15"/>
       <c r="T238" s="34"/>
       <c r="U238" s="39"/>
       <c r="V238" s="39"/>
       <c r="W238" s="39"/>
       <c r="X238" s="45"/>
-      <c r="Y238" s="46"/>
-      <c r="Z238" s="46"/>
-      <c r="AA238" s="46"/>
+      <c r="Y238" s="58"/>
+      <c r="Z238" s="58"/>
+      <c r="AA238" s="58"/>
       <c r="AB238" s="15"/>
       <c r="AC238" s="15"/>
       <c r="AD238" s="15"/>
@@ -9693,27 +9714,27 @@
       <c r="D239" s="39"/>
       <c r="E239" s="15"/>
       <c r="F239" s="39"/>
-      <c r="G239" s="46"/>
-      <c r="H239" s="46"/>
-      <c r="I239" s="46"/>
+      <c r="G239" s="58"/>
+      <c r="H239" s="58"/>
+      <c r="I239" s="58"/>
       <c r="J239" s="15"/>
       <c r="K239" s="34"/>
       <c r="L239" s="39"/>
       <c r="M239" s="39"/>
       <c r="N239" s="39"/>
       <c r="O239" s="39"/>
-      <c r="P239" s="46"/>
-      <c r="Q239" s="46"/>
-      <c r="R239" s="46"/>
+      <c r="P239" s="58"/>
+      <c r="Q239" s="58"/>
+      <c r="R239" s="58"/>
       <c r="S239" s="15"/>
       <c r="T239" s="34"/>
       <c r="U239" s="39"/>
       <c r="V239" s="39"/>
       <c r="W239" s="39"/>
       <c r="X239" s="39"/>
-      <c r="Y239" s="46"/>
-      <c r="Z239" s="46"/>
-      <c r="AA239" s="46"/>
+      <c r="Y239" s="58"/>
+      <c r="Z239" s="58"/>
+      <c r="AA239" s="58"/>
       <c r="AB239" s="15"/>
       <c r="AC239" s="15"/>
       <c r="AD239" s="15"/>
@@ -9730,27 +9751,27 @@
       <c r="D240" s="39"/>
       <c r="E240" s="15"/>
       <c r="F240" s="39"/>
-      <c r="G240" s="46"/>
-      <c r="H240" s="46"/>
-      <c r="I240" s="46"/>
+      <c r="G240" s="58"/>
+      <c r="H240" s="58"/>
+      <c r="I240" s="58"/>
       <c r="J240" s="15"/>
       <c r="K240" s="34"/>
       <c r="L240" s="39"/>
       <c r="M240" s="39"/>
       <c r="N240" s="15"/>
       <c r="O240" s="39"/>
-      <c r="P240" s="46"/>
-      <c r="Q240" s="46"/>
-      <c r="R240" s="46"/>
+      <c r="P240" s="58"/>
+      <c r="Q240" s="58"/>
+      <c r="R240" s="58"/>
       <c r="S240" s="15"/>
       <c r="T240" s="34"/>
       <c r="U240" s="39"/>
       <c r="V240" s="39"/>
       <c r="W240" s="39"/>
       <c r="X240" s="39"/>
-      <c r="Y240" s="46"/>
-      <c r="Z240" s="46"/>
-      <c r="AA240" s="46"/>
+      <c r="Y240" s="58"/>
+      <c r="Z240" s="58"/>
+      <c r="AA240" s="58"/>
       <c r="AB240" s="15"/>
       <c r="AC240" s="15"/>
       <c r="AD240" s="15"/>
@@ -9767,27 +9788,27 @@
       <c r="D241" s="39"/>
       <c r="E241" s="15"/>
       <c r="F241" s="39"/>
-      <c r="G241" s="46"/>
-      <c r="H241" s="46"/>
-      <c r="I241" s="46"/>
+      <c r="G241" s="58"/>
+      <c r="H241" s="58"/>
+      <c r="I241" s="58"/>
       <c r="J241" s="15"/>
       <c r="K241" s="34"/>
       <c r="L241" s="39"/>
       <c r="M241" s="39"/>
       <c r="N241" s="15"/>
       <c r="O241" s="39"/>
-      <c r="P241" s="46"/>
-      <c r="Q241" s="46"/>
-      <c r="R241" s="46"/>
+      <c r="P241" s="58"/>
+      <c r="Q241" s="58"/>
+      <c r="R241" s="58"/>
       <c r="S241" s="15"/>
       <c r="T241" s="34"/>
       <c r="U241" s="39"/>
       <c r="V241" s="39"/>
       <c r="W241" s="39"/>
       <c r="X241" s="39"/>
-      <c r="Y241" s="46"/>
-      <c r="Z241" s="46"/>
-      <c r="AA241" s="46"/>
+      <c r="Y241" s="58"/>
+      <c r="Z241" s="58"/>
+      <c r="AA241" s="58"/>
       <c r="AB241" s="15"/>
       <c r="AC241" s="15"/>
       <c r="AD241" s="15"/>
@@ -9804,27 +9825,27 @@
       <c r="D242" s="39"/>
       <c r="E242" s="15"/>
       <c r="F242" s="39"/>
-      <c r="G242" s="46"/>
-      <c r="H242" s="46"/>
-      <c r="I242" s="46"/>
+      <c r="G242" s="58"/>
+      <c r="H242" s="58"/>
+      <c r="I242" s="58"/>
       <c r="J242" s="15"/>
       <c r="K242" s="34"/>
       <c r="L242" s="39"/>
       <c r="M242" s="39"/>
       <c r="N242" s="15"/>
       <c r="O242" s="39"/>
-      <c r="P242" s="46"/>
-      <c r="Q242" s="46"/>
-      <c r="R242" s="46"/>
+      <c r="P242" s="58"/>
+      <c r="Q242" s="58"/>
+      <c r="R242" s="58"/>
       <c r="S242" s="15"/>
       <c r="T242" s="34"/>
       <c r="U242" s="39"/>
       <c r="V242" s="39"/>
       <c r="W242" s="15"/>
       <c r="X242" s="39"/>
-      <c r="Y242" s="46"/>
-      <c r="Z242" s="46"/>
-      <c r="AA242" s="46"/>
+      <c r="Y242" s="58"/>
+      <c r="Z242" s="58"/>
+      <c r="AA242" s="58"/>
       <c r="AB242" s="15"/>
       <c r="AC242" s="15"/>
       <c r="AD242" s="15"/>
@@ -9841,27 +9862,27 @@
       <c r="D243" s="39"/>
       <c r="E243" s="15"/>
       <c r="F243" s="39"/>
-      <c r="G243" s="46"/>
-      <c r="H243" s="46"/>
-      <c r="I243" s="46"/>
+      <c r="G243" s="58"/>
+      <c r="H243" s="58"/>
+      <c r="I243" s="58"/>
       <c r="J243" s="15"/>
       <c r="K243" s="34"/>
       <c r="L243" s="39"/>
       <c r="M243" s="39"/>
       <c r="N243" s="15"/>
       <c r="O243" s="39"/>
-      <c r="P243" s="46"/>
-      <c r="Q243" s="46"/>
-      <c r="R243" s="46"/>
+      <c r="P243" s="58"/>
+      <c r="Q243" s="58"/>
+      <c r="R243" s="58"/>
       <c r="S243" s="15"/>
       <c r="T243" s="34"/>
       <c r="U243" s="39"/>
       <c r="V243" s="39"/>
       <c r="W243" s="39"/>
       <c r="X243" s="39"/>
-      <c r="Y243" s="46"/>
-      <c r="Z243" s="46"/>
-      <c r="AA243" s="46"/>
+      <c r="Y243" s="58"/>
+      <c r="Z243" s="58"/>
+      <c r="AA243" s="58"/>
       <c r="AB243" s="15"/>
       <c r="AC243" s="15"/>
       <c r="AD243" s="15"/>
@@ -9878,27 +9899,27 @@
       <c r="D244" s="39"/>
       <c r="E244" s="15"/>
       <c r="F244" s="39"/>
-      <c r="G244" s="46"/>
-      <c r="H244" s="46"/>
-      <c r="I244" s="46"/>
+      <c r="G244" s="58"/>
+      <c r="H244" s="58"/>
+      <c r="I244" s="58"/>
       <c r="J244" s="15"/>
       <c r="K244" s="34"/>
       <c r="L244" s="39"/>
       <c r="M244" s="39"/>
       <c r="N244" s="15"/>
       <c r="O244" s="39"/>
-      <c r="P244" s="46"/>
-      <c r="Q244" s="46"/>
-      <c r="R244" s="46"/>
+      <c r="P244" s="58"/>
+      <c r="Q244" s="58"/>
+      <c r="R244" s="58"/>
       <c r="S244" s="15"/>
       <c r="T244" s="34"/>
       <c r="U244" s="39"/>
       <c r="V244" s="39"/>
       <c r="W244" s="39"/>
       <c r="X244" s="39"/>
-      <c r="Y244" s="46"/>
-      <c r="Z244" s="46"/>
-      <c r="AA244" s="46"/>
+      <c r="Y244" s="58"/>
+      <c r="Z244" s="58"/>
+      <c r="AA244" s="58"/>
       <c r="AB244" s="15"/>
       <c r="AC244" s="15"/>
       <c r="AD244" s="15"/>
@@ -9915,27 +9936,27 @@
       <c r="D245" s="39"/>
       <c r="E245" s="15"/>
       <c r="F245" s="39"/>
-      <c r="G245" s="46"/>
-      <c r="H245" s="46"/>
-      <c r="I245" s="46"/>
+      <c r="G245" s="58"/>
+      <c r="H245" s="58"/>
+      <c r="I245" s="58"/>
       <c r="J245" s="15"/>
       <c r="K245" s="34"/>
       <c r="L245" s="39"/>
       <c r="M245" s="39"/>
       <c r="N245" s="15"/>
       <c r="O245" s="39"/>
-      <c r="P245" s="46"/>
-      <c r="Q245" s="46"/>
-      <c r="R245" s="46"/>
+      <c r="P245" s="58"/>
+      <c r="Q245" s="58"/>
+      <c r="R245" s="58"/>
       <c r="S245" s="15"/>
       <c r="T245" s="34"/>
       <c r="U245" s="39"/>
       <c r="V245" s="39"/>
       <c r="W245" s="39"/>
       <c r="X245" s="39"/>
-      <c r="Y245" s="46"/>
-      <c r="Z245" s="46"/>
-      <c r="AA245" s="46"/>
+      <c r="Y245" s="58"/>
+      <c r="Z245" s="58"/>
+      <c r="AA245" s="58"/>
       <c r="AB245" s="15"/>
       <c r="AC245" s="15"/>
       <c r="AD245" s="15"/>
@@ -9952,27 +9973,27 @@
       <c r="D246" s="39"/>
       <c r="E246" s="15"/>
       <c r="F246" s="39"/>
-      <c r="G246" s="46"/>
-      <c r="H246" s="46"/>
-      <c r="I246" s="46"/>
+      <c r="G246" s="58"/>
+      <c r="H246" s="58"/>
+      <c r="I246" s="58"/>
       <c r="J246" s="15"/>
       <c r="K246" s="34"/>
       <c r="L246" s="39"/>
       <c r="M246" s="39"/>
       <c r="N246" s="15"/>
       <c r="O246" s="39"/>
-      <c r="P246" s="46"/>
-      <c r="Q246" s="46"/>
-      <c r="R246" s="46"/>
+      <c r="P246" s="58"/>
+      <c r="Q246" s="58"/>
+      <c r="R246" s="58"/>
       <c r="S246" s="15"/>
       <c r="T246" s="34"/>
       <c r="U246" s="39"/>
       <c r="V246" s="39"/>
       <c r="W246" s="39"/>
       <c r="X246" s="39"/>
-      <c r="Y246" s="46"/>
-      <c r="Z246" s="46"/>
-      <c r="AA246" s="46"/>
+      <c r="Y246" s="58"/>
+      <c r="Z246" s="58"/>
+      <c r="AA246" s="58"/>
       <c r="AB246" s="15"/>
       <c r="AC246" s="15"/>
       <c r="AD246" s="15"/>
@@ -9989,27 +10010,27 @@
       <c r="D247" s="39"/>
       <c r="E247" s="15"/>
       <c r="F247" s="39"/>
-      <c r="G247" s="46"/>
-      <c r="H247" s="46"/>
-      <c r="I247" s="46"/>
+      <c r="G247" s="58"/>
+      <c r="H247" s="58"/>
+      <c r="I247" s="58"/>
       <c r="J247" s="15"/>
       <c r="K247" s="34"/>
       <c r="L247" s="39"/>
       <c r="M247" s="39"/>
       <c r="N247" s="15"/>
       <c r="O247" s="39"/>
-      <c r="P247" s="46"/>
-      <c r="Q247" s="46"/>
-      <c r="R247" s="46"/>
+      <c r="P247" s="58"/>
+      <c r="Q247" s="58"/>
+      <c r="R247" s="58"/>
       <c r="S247" s="15"/>
       <c r="T247" s="34"/>
       <c r="U247" s="39"/>
       <c r="V247" s="39"/>
       <c r="W247" s="39"/>
       <c r="X247" s="39"/>
-      <c r="Y247" s="46"/>
-      <c r="Z247" s="46"/>
-      <c r="AA247" s="46"/>
+      <c r="Y247" s="58"/>
+      <c r="Z247" s="58"/>
+      <c r="AA247" s="58"/>
       <c r="AB247" s="15"/>
       <c r="AC247" s="15"/>
       <c r="AD247" s="15"/>
@@ -10044,9 +10065,9 @@
       <c r="V248" s="39"/>
       <c r="W248" s="39"/>
       <c r="X248" s="39"/>
-      <c r="Y248" s="46"/>
-      <c r="Z248" s="46"/>
-      <c r="AA248" s="46"/>
+      <c r="Y248" s="58"/>
+      <c r="Z248" s="58"/>
+      <c r="AA248" s="58"/>
       <c r="AB248" s="15"/>
       <c r="AC248" s="15"/>
       <c r="AD248" s="15"/>
@@ -10649,7 +10670,7 @@
       <c r="AI264" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="489">
+  <mergeCells count="486">
     <mergeCell ref="G247:I247"/>
     <mergeCell ref="P247:R247"/>
     <mergeCell ref="Y247:AA247"/>
@@ -10961,14 +10982,11 @@
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="P22:R22"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G18:I18"/>
     <mergeCell ref="P8:R8"/>
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="P20:R20"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="Y15:AA15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="P18:R18"/>
     <mergeCell ref="Y19:AA19"/>

--- a/Zeiterfassung5Schuljahr.xlsx
+++ b/Zeiterfassung5Schuljahr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuljahr\syp\Projekt\multiflexlbkv\multiflexlbkv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\5CHIF\Syp\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA453E73-4610-45F5-8FA0-FCA498F78AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD60B00-AC19-4781-9FA9-7456B8400491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>Arbeitsstunden</t>
   </si>
@@ -82,12 +82,6 @@
     <t>java Dokumentation</t>
   </si>
   <si>
-    <t>C#Dokumentation</t>
-  </si>
-  <si>
-    <t>Bug Fixing C#</t>
-  </si>
-  <si>
     <t>Server neu Aufsetzen und einrichten</t>
   </si>
   <si>
@@ -113,6 +107,15 @@
   </si>
   <si>
     <t>116:00</t>
+  </si>
+  <si>
+    <t>fix Generify</t>
+  </si>
+  <si>
+    <t>Bug Fixing Frontend</t>
+  </si>
+  <si>
+    <t>Frontend Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -1350,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD264"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1681,7 +1684,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H9" s="79"/>
       <c r="I9" s="80"/>
@@ -1703,7 +1706,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="P9" s="78" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="79"/>
       <c r="R9" s="80"/>
@@ -1725,7 +1728,7 @@
         <v>0.41666666666666663</v>
       </c>
       <c r="Y9" s="78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z9" s="79"/>
       <c r="AA9" s="80"/>
@@ -1733,7 +1736,7 @@
         <v>10</v>
       </c>
       <c r="AC9" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
@@ -1779,7 +1782,7 @@
         <v>0.125</v>
       </c>
       <c r="P10" s="78" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="79"/>
       <c r="R10" s="80"/>
@@ -1801,7 +1804,7 @@
         <v>0.16666666666666674</v>
       </c>
       <c r="Y10" s="95" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Z10" s="95"/>
       <c r="AA10" s="96"/>
@@ -1827,7 +1830,7 @@
         <v>0.22916666666666663</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="79"/>
       <c r="I11" s="80"/>
@@ -1849,7 +1852,7 @@
         <v>0.22916666666666663</v>
       </c>
       <c r="P11" s="88" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="89"/>
       <c r="R11" s="90"/>
@@ -1871,7 +1874,7 @@
         <v>0.125</v>
       </c>
       <c r="Y11" s="95" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Z11" s="95"/>
       <c r="AA11" s="96"/>
@@ -1897,7 +1900,7 @@
         <v>0.25</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" s="79"/>
       <c r="I12" s="80"/>
@@ -1919,7 +1922,7 @@
         <v>0.20833333333333331</v>
       </c>
       <c r="P12" s="88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="89"/>
       <c r="R12" s="90"/>
@@ -1941,7 +1944,7 @@
         <v>0.20833333333333331</v>
       </c>
       <c r="Y12" s="91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z12" s="92"/>
       <c r="AA12" s="93"/>
@@ -1967,7 +1970,7 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="G13" s="78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H13" s="79"/>
       <c r="I13" s="80"/>
@@ -1989,7 +1992,7 @@
         <v>0.29166666666666674</v>
       </c>
       <c r="P13" s="88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="89"/>
       <c r="R13" s="90"/>
@@ -2011,7 +2014,7 @@
         <v>0.29166666666666674</v>
       </c>
       <c r="Y13" s="91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z13" s="92"/>
       <c r="AA13" s="93"/>
@@ -2037,7 +2040,7 @@
         <v>0.14583333333333337</v>
       </c>
       <c r="G14" s="78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14" s="79"/>
       <c r="I14" s="80"/>
@@ -2059,7 +2062,7 @@
         <v>0.27083333333333326</v>
       </c>
       <c r="P14" s="82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="83"/>
       <c r="R14" s="84"/>
@@ -2081,7 +2084,7 @@
         <v>0.27083333333333326</v>
       </c>
       <c r="Y14" s="82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z14" s="83"/>
       <c r="AA14" s="84"/>
@@ -2107,7 +2110,7 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="79"/>
       <c r="I15" s="80"/>
@@ -2115,7 +2118,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="O15" s="49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P15" s="54"/>
       <c r="Q15" s="30"/>
@@ -2124,7 +2127,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="X15" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y15" s="54"/>
       <c r="Z15" s="30"/>
@@ -2155,7 +2158,7 @@
         <v>0.20833333333333337</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H16" s="79"/>
       <c r="I16" s="80"/>
@@ -2203,7 +2206,7 @@
         <v>0.22916666666666663</v>
       </c>
       <c r="G17" s="85" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H17" s="86"/>
       <c r="I17" s="87"/>
@@ -2239,7 +2242,7 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" s="47"/>
       <c r="H18" s="30"/>
